--- a/PITS/B04_Pit_26Mar2019.xlsx
+++ b/PITS/B04_Pit_26Mar2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDCRLCAG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpm/HP_DRIVE/GrandMesaMarch2019/PITS/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A645C904-804A-B348-BB91-5D6F7039CEFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="504" windowWidth="25116" windowHeight="15576" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="30040" windowHeight="18780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIT" sheetId="1" r:id="rId1"/>
@@ -22,8 +23,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">ENVIRONMENT!$A$1:$R$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">PIT!$B$1:$AF$33</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="294">
   <si>
     <t>Location:</t>
   </si>
@@ -1055,10 +1061,6 @@
     <t>Oh</t>
   </si>
   <si>
-    <t>Air
-Temperature</t>
-  </si>
-  <si>
     <t>HN
 (cm)</t>
   </si>
@@ -1187,11 +1189,17 @@
   <si>
     <t>1615</t>
   </si>
+  <si>
+    <t>Coordinates added from planned location.</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="30">
     <font>
       <sz val="10"/>
@@ -3500,6 +3508,340 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3524,9 +3866,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3569,35 +3908,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -3619,9 +3940,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3631,382 +3949,308 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -4045,284 +4289,78 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4341,22 +4379,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4379,47 +4411,23 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="91" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4788,271 +4796,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" hidden="1"/>
-    <col min="2" max="2" width="6.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" hidden="1"/>
+    <col min="2" max="2" width="6.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="1.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="1.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" style="1" customWidth="1"/>
-    <col min="18" max="20" width="4.109375" style="1" customWidth="1"/>
+    <col min="18" max="20" width="4.1640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.77734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="1.77734375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="1.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.44140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="1.109375" style="1" customWidth="1"/>
-    <col min="30" max="31" width="3.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="1.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="1.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="1.1640625" style="1" customWidth="1"/>
+    <col min="30" max="31" width="3.5" style="1" customWidth="1"/>
     <col min="32" max="32" width="14.6640625" style="1" customWidth="1"/>
     <col min="33" max="1030" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.05" customHeight="1" thickTop="1">
+    <row r="1" spans="1:32" ht="16" customHeight="1" thickTop="1">
       <c r="A1" s="24"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="193" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" s="191"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="203" t="s">
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="305" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="303"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="273" t="s">
+      <c r="M1" s="315"/>
+      <c r="N1" s="315"/>
+      <c r="O1" s="315"/>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="315"/>
+      <c r="S1" s="315"/>
+      <c r="T1" s="315"/>
+      <c r="U1" s="315"/>
+      <c r="V1" s="316"/>
+      <c r="W1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="274"/>
-      <c r="Y1" s="274"/>
-      <c r="Z1" s="274"/>
-      <c r="AA1" s="274"/>
-      <c r="AB1" s="274"/>
-      <c r="AC1" s="274"/>
-      <c r="AD1" s="274"/>
-      <c r="AE1" s="274"/>
-      <c r="AF1" s="275"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="215"/>
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="215"/>
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
     </row>
     <row r="2" spans="1:32" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="333" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="317" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="206" t="s">
-        <v>290</v>
-      </c>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="276"/>
-      <c r="X2" s="277"/>
-      <c r="Y2" s="277"/>
-      <c r="Z2" s="277"/>
-      <c r="AA2" s="277"/>
-      <c r="AB2" s="277"/>
-      <c r="AC2" s="277"/>
-      <c r="AD2" s="277"/>
-      <c r="AE2" s="277"/>
-      <c r="AF2" s="278"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="318"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="318"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="318"/>
+      <c r="U2" s="318"/>
+      <c r="V2" s="319"/>
+      <c r="W2" s="217" t="s">
+        <v>292</v>
+      </c>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
+      <c r="AF2" s="219"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="322" t="s">
+      <c r="B3" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="325" t="s">
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="326"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="212" t="s">
+      <c r="J3" s="205"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="322" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="209" t="s">
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="211"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="321"/>
       <c r="V3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="279"/>
-      <c r="X3" s="280"/>
-      <c r="Y3" s="280"/>
-      <c r="Z3" s="280"/>
-      <c r="AA3" s="280"/>
-      <c r="AB3" s="280"/>
-      <c r="AC3" s="280"/>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="281"/>
-    </row>
-    <row r="4" spans="1:32" ht="28.95" customHeight="1" thickBot="1">
+      <c r="W3" s="220"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="221"/>
+      <c r="AD3" s="221"/>
+      <c r="AE3" s="221"/>
+      <c r="AF3" s="222"/>
+    </row>
+    <row r="4" spans="1:32" ht="29" customHeight="1" thickBot="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="323"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
-      <c r="H4" s="324"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="222"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="325">
+        <v>741743</v>
+      </c>
+      <c r="M4" s="326"/>
+      <c r="N4" s="326"/>
+      <c r="O4" s="327"/>
+      <c r="P4" s="326">
+        <v>4323242</v>
+      </c>
+      <c r="Q4" s="326"/>
+      <c r="R4" s="326"/>
+      <c r="S4" s="326"/>
+      <c r="T4" s="326"/>
+      <c r="U4" s="327"/>
       <c r="V4" s="170"/>
-      <c r="W4" s="279"/>
-      <c r="X4" s="280"/>
-      <c r="Y4" s="280"/>
-      <c r="Z4" s="280"/>
-      <c r="AA4" s="280"/>
-      <c r="AB4" s="280"/>
-      <c r="AC4" s="280"/>
-      <c r="AD4" s="280"/>
-      <c r="AE4" s="280"/>
-      <c r="AF4" s="281"/>
-    </row>
-    <row r="5" spans="1:32" ht="28.95" customHeight="1">
+      <c r="W4" s="220"/>
+      <c r="X4" s="221"/>
+      <c r="Y4" s="221"/>
+      <c r="Z4" s="221"/>
+      <c r="AA4" s="221"/>
+      <c r="AB4" s="221"/>
+      <c r="AC4" s="221"/>
+      <c r="AD4" s="221"/>
+      <c r="AE4" s="221"/>
+      <c r="AF4" s="222"/>
+    </row>
+    <row r="5" spans="1:32" ht="29" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="330" t="s">
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="209" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="331"/>
-      <c r="I5" s="320" t="s">
+      <c r="H5" s="210"/>
+      <c r="I5" s="198" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="320"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="223" t="s">
-        <v>255</v>
-      </c>
-      <c r="M5" s="224"/>
-      <c r="N5" s="225" t="s">
+      <c r="J5" s="198"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="328" t="s">
+        <v>293</v>
+      </c>
+      <c r="M5" s="329"/>
+      <c r="N5" s="330" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="226"/>
-      <c r="P5" s="314" t="s">
+      <c r="O5" s="331"/>
+      <c r="P5" s="190" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="315"/>
-      <c r="R5" s="317" t="s">
+      <c r="Q5" s="191"/>
+      <c r="R5" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="317"/>
-      <c r="T5" s="317"/>
-      <c r="U5" s="315"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="194"/>
+      <c r="U5" s="191"/>
       <c r="V5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="279"/>
-      <c r="X5" s="280"/>
-      <c r="Y5" s="280"/>
-      <c r="Z5" s="280"/>
-      <c r="AA5" s="280"/>
-      <c r="AB5" s="280"/>
-      <c r="AC5" s="280"/>
-      <c r="AD5" s="280"/>
-      <c r="AE5" s="280"/>
-      <c r="AF5" s="281"/>
-    </row>
-    <row r="6" spans="1:32" ht="31.95" customHeight="1" thickBot="1">
+      <c r="W5" s="220"/>
+      <c r="X5" s="221"/>
+      <c r="Y5" s="221"/>
+      <c r="Z5" s="221"/>
+      <c r="AA5" s="221"/>
+      <c r="AB5" s="221"/>
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="221"/>
+      <c r="AE5" s="221"/>
+      <c r="AF5" s="222"/>
+    </row>
+    <row r="6" spans="1:32" ht="32" customHeight="1" thickBot="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="287" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="288"/>
-      <c r="D6" s="288"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="288"/>
-      <c r="G6" s="332">
+      <c r="B6" s="228" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="211">
         <v>195</v>
       </c>
-      <c r="H6" s="333"/>
+      <c r="H6" s="212"/>
       <c r="I6" s="177" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J6" s="122" t="s">
         <v>175</v>
@@ -5064,78 +5078,78 @@
       <c r="M6" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
-      <c r="P6" s="316"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="477">
+      <c r="N6" s="332"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="195">
         <v>43550</v>
       </c>
-      <c r="S6" s="318"/>
-      <c r="T6" s="318"/>
-      <c r="U6" s="319"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="197"/>
       <c r="V6" s="45">
         <v>1445</v>
       </c>
-      <c r="W6" s="282"/>
-      <c r="X6" s="283"/>
-      <c r="Y6" s="283"/>
-      <c r="Z6" s="283"/>
-      <c r="AA6" s="283"/>
-      <c r="AB6" s="283"/>
-      <c r="AC6" s="283"/>
-      <c r="AD6" s="283"/>
-      <c r="AE6" s="283"/>
-      <c r="AF6" s="284"/>
-    </row>
-    <row r="7" spans="1:32" s="6" customFormat="1" ht="28.95" customHeight="1">
+      <c r="W6" s="223"/>
+      <c r="X6" s="224"/>
+      <c r="Y6" s="224"/>
+      <c r="Z6" s="224"/>
+      <c r="AA6" s="224"/>
+      <c r="AB6" s="224"/>
+      <c r="AC6" s="224"/>
+      <c r="AD6" s="224"/>
+      <c r="AE6" s="224"/>
+      <c r="AF6" s="225"/>
+    </row>
+    <row r="7" spans="1:32" s="6" customFormat="1" ht="29" customHeight="1">
       <c r="A7" s="25"/>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="307" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="302" t="s">
+      <c r="C7" s="308"/>
+      <c r="D7" s="308"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="304"/>
-      <c r="L7" s="300" t="s">
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="301"/>
-      <c r="N7" s="297"/>
-      <c r="O7" s="294" t="s">
+      <c r="M7" s="243"/>
+      <c r="N7" s="239"/>
+      <c r="O7" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="295"/>
-      <c r="Q7" s="295"/>
-      <c r="R7" s="295"/>
-      <c r="S7" s="295"/>
-      <c r="T7" s="295"/>
-      <c r="U7" s="295"/>
-      <c r="V7" s="295"/>
-      <c r="W7" s="295"/>
-      <c r="X7" s="295"/>
-      <c r="Y7" s="295"/>
-      <c r="Z7" s="295"/>
-      <c r="AA7" s="295"/>
-      <c r="AB7" s="295"/>
-      <c r="AC7" s="295"/>
-      <c r="AD7" s="295"/>
-      <c r="AE7" s="295"/>
-      <c r="AF7" s="296"/>
-    </row>
-    <row r="8" spans="1:32" ht="37.200000000000003" customHeight="1">
-      <c r="B8" s="201" t="s">
+      <c r="P7" s="237"/>
+      <c r="Q7" s="237"/>
+      <c r="R7" s="237"/>
+      <c r="S7" s="237"/>
+      <c r="T7" s="237"/>
+      <c r="U7" s="237"/>
+      <c r="V7" s="237"/>
+      <c r="W7" s="237"/>
+      <c r="X7" s="237"/>
+      <c r="Y7" s="237"/>
+      <c r="Z7" s="237"/>
+      <c r="AA7" s="237"/>
+      <c r="AB7" s="237"/>
+      <c r="AC7" s="237"/>
+      <c r="AD7" s="237"/>
+      <c r="AE7" s="237"/>
+      <c r="AF7" s="238"/>
+    </row>
+    <row r="8" spans="1:32" ht="37.25" customHeight="1">
+      <c r="B8" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
+      <c r="C8" s="312"/>
+      <c r="D8" s="312"/>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
@@ -5145,53 +5159,53 @@
       <c r="G8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="215" t="s">
+      <c r="H8" s="323" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="216"/>
-      <c r="J8" s="199" t="s">
+      <c r="I8" s="324"/>
+      <c r="J8" s="310" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="200"/>
+      <c r="K8" s="311"/>
       <c r="L8" s="48" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="298"/>
-      <c r="O8" s="260" t="s">
+      <c r="N8" s="240"/>
+      <c r="O8" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="262"/>
-      <c r="R8" s="263" t="s">
+      <c r="P8" s="266"/>
+      <c r="Q8" s="234"/>
+      <c r="R8" s="267" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="264"/>
-      <c r="T8" s="265"/>
-      <c r="U8" s="202" t="s">
+      <c r="S8" s="268"/>
+      <c r="T8" s="269"/>
+      <c r="U8" s="313" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="262" t="s">
+      <c r="V8" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="W8" s="291" t="s">
+      <c r="W8" s="232" t="s">
         <v>108</v>
       </c>
-      <c r="X8" s="305" t="s">
+      <c r="X8" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="305"/>
-      <c r="Z8" s="305"/>
-      <c r="AA8" s="305"/>
-      <c r="AB8" s="305"/>
-      <c r="AC8" s="305"/>
-      <c r="AD8" s="305"/>
-      <c r="AE8" s="305"/>
-      <c r="AF8" s="306"/>
-    </row>
-    <row r="9" spans="1:32" ht="28.95" customHeight="1">
+      <c r="Y8" s="247"/>
+      <c r="Z8" s="247"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="247"/>
+      <c r="AC8" s="247"/>
+      <c r="AD8" s="247"/>
+      <c r="AE8" s="247"/>
+      <c r="AF8" s="248"/>
+    </row>
+    <row r="9" spans="1:32" ht="29" customHeight="1">
       <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
@@ -5228,7 +5242,7 @@
       <c r="M9" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="298"/>
+      <c r="N9" s="240"/>
       <c r="O9" s="104" t="s">
         <v>19</v>
       </c>
@@ -5247,22 +5261,22 @@
       <c r="T9" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="U9" s="202"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="292"/>
-      <c r="X9" s="307"/>
-      <c r="Y9" s="307"/>
-      <c r="Z9" s="307"/>
-      <c r="AA9" s="307"/>
-      <c r="AB9" s="307"/>
-      <c r="AC9" s="307"/>
-      <c r="AD9" s="307"/>
-      <c r="AE9" s="307"/>
-      <c r="AF9" s="308"/>
-    </row>
-    <row r="10" spans="1:32" ht="19.95" customHeight="1">
+      <c r="U9" s="313"/>
+      <c r="V9" s="235"/>
+      <c r="W9" s="233"/>
+      <c r="X9" s="249"/>
+      <c r="Y9" s="249"/>
+      <c r="Z9" s="249"/>
+      <c r="AA9" s="249"/>
+      <c r="AB9" s="249"/>
+      <c r="AC9" s="249"/>
+      <c r="AD9" s="249"/>
+      <c r="AE9" s="249"/>
+      <c r="AF9" s="250"/>
+    </row>
+    <row r="10" spans="1:32" ht="20" customHeight="1">
       <c r="B10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>22</v>
@@ -5277,29 +5291,29 @@
       <c r="K10" s="10"/>
       <c r="L10" s="70"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="298"/>
-      <c r="O10" s="217"/>
-      <c r="P10" s="195" t="s">
+      <c r="N10" s="240"/>
+      <c r="O10" s="260"/>
+      <c r="P10" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="195"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="235"/>
-      <c r="U10" s="213"/>
-      <c r="V10" s="246"/>
-      <c r="W10" s="289"/>
-      <c r="X10" s="256"/>
-      <c r="Y10" s="252"/>
-      <c r="Z10" s="252"/>
-      <c r="AA10" s="252"/>
-      <c r="AB10" s="252"/>
-      <c r="AC10" s="252"/>
-      <c r="AD10" s="252"/>
-      <c r="AE10" s="252"/>
-      <c r="AF10" s="253"/>
-    </row>
-    <row r="11" spans="1:32" ht="19.95" customHeight="1">
+      <c r="Q10" s="264"/>
+      <c r="R10" s="287"/>
+      <c r="S10" s="262"/>
+      <c r="T10" s="270"/>
+      <c r="U10" s="286"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="230"/>
+      <c r="X10" s="275"/>
+      <c r="Y10" s="251"/>
+      <c r="Z10" s="251"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="251"/>
+      <c r="AC10" s="251"/>
+      <c r="AD10" s="251"/>
+      <c r="AE10" s="251"/>
+      <c r="AF10" s="252"/>
+    </row>
+    <row r="11" spans="1:32" ht="20" customHeight="1">
       <c r="B11" s="9">
         <v>195</v>
       </c>
@@ -5323,27 +5337,27 @@
       <c r="K11" s="10"/>
       <c r="L11" s="71"/>
       <c r="M11" s="64"/>
-      <c r="N11" s="298"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="195"/>
-      <c r="Q11" s="195"/>
-      <c r="R11" s="219"/>
-      <c r="S11" s="219"/>
-      <c r="T11" s="239"/>
-      <c r="U11" s="214"/>
-      <c r="V11" s="247"/>
-      <c r="W11" s="290"/>
-      <c r="X11" s="257"/>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="254"/>
-      <c r="AC11" s="254"/>
-      <c r="AD11" s="254"/>
-      <c r="AE11" s="254"/>
-      <c r="AF11" s="255"/>
-    </row>
-    <row r="12" spans="1:32" ht="19.95" customHeight="1">
+      <c r="N11" s="240"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="264"/>
+      <c r="Q11" s="264"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="262"/>
+      <c r="T11" s="271"/>
+      <c r="U11" s="287"/>
+      <c r="V11" s="278"/>
+      <c r="W11" s="231"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="255"/>
+      <c r="Z11" s="255"/>
+      <c r="AA11" s="255"/>
+      <c r="AB11" s="255"/>
+      <c r="AC11" s="255"/>
+      <c r="AD11" s="255"/>
+      <c r="AE11" s="255"/>
+      <c r="AF11" s="256"/>
+    </row>
+    <row r="12" spans="1:32" ht="20" customHeight="1">
       <c r="B12" s="9">
         <f>D11</f>
         <v>185</v>
@@ -5368,29 +5382,29 @@
       <c r="K12" s="10"/>
       <c r="L12" s="71"/>
       <c r="M12" s="62"/>
-      <c r="N12" s="298"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="195" t="s">
+      <c r="N12" s="240"/>
+      <c r="O12" s="260"/>
+      <c r="P12" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="195"/>
-      <c r="R12" s="219"/>
-      <c r="S12" s="219"/>
-      <c r="T12" s="259"/>
-      <c r="U12" s="213"/>
-      <c r="V12" s="246"/>
-      <c r="W12" s="267"/>
-      <c r="X12" s="252"/>
-      <c r="Y12" s="252"/>
-      <c r="Z12" s="252"/>
-      <c r="AA12" s="252"/>
-      <c r="AB12" s="252"/>
-      <c r="AC12" s="252"/>
-      <c r="AD12" s="252"/>
-      <c r="AE12" s="252"/>
-      <c r="AF12" s="253"/>
-    </row>
-    <row r="13" spans="1:32" ht="19.95" customHeight="1">
+      <c r="Q12" s="264"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="262"/>
+      <c r="T12" s="279"/>
+      <c r="U12" s="286"/>
+      <c r="V12" s="277"/>
+      <c r="W12" s="188"/>
+      <c r="X12" s="251"/>
+      <c r="Y12" s="251"/>
+      <c r="Z12" s="251"/>
+      <c r="AA12" s="251"/>
+      <c r="AB12" s="251"/>
+      <c r="AC12" s="251"/>
+      <c r="AD12" s="251"/>
+      <c r="AE12" s="251"/>
+      <c r="AF12" s="252"/>
+    </row>
+    <row r="13" spans="1:32" ht="20" customHeight="1">
       <c r="B13" s="9">
         <f t="shared" ref="B13:B25" si="0">D12</f>
         <v>175</v>
@@ -5415,27 +5429,27 @@
       <c r="K13" s="10"/>
       <c r="L13" s="72"/>
       <c r="M13" s="66"/>
-      <c r="N13" s="298"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="195"/>
-      <c r="R13" s="219"/>
-      <c r="S13" s="219"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="247"/>
-      <c r="W13" s="268"/>
-      <c r="X13" s="254"/>
-      <c r="Y13" s="254"/>
-      <c r="Z13" s="254"/>
-      <c r="AA13" s="254"/>
-      <c r="AB13" s="254"/>
-      <c r="AC13" s="254"/>
-      <c r="AD13" s="254"/>
-      <c r="AE13" s="254"/>
-      <c r="AF13" s="255"/>
-    </row>
-    <row r="14" spans="1:32" ht="19.95" customHeight="1">
+      <c r="N13" s="240"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="264"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="262"/>
+      <c r="T13" s="279"/>
+      <c r="U13" s="287"/>
+      <c r="V13" s="278"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="255"/>
+      <c r="Y13" s="255"/>
+      <c r="Z13" s="255"/>
+      <c r="AA13" s="255"/>
+      <c r="AB13" s="255"/>
+      <c r="AC13" s="255"/>
+      <c r="AD13" s="255"/>
+      <c r="AE13" s="255"/>
+      <c r="AF13" s="256"/>
+    </row>
+    <row r="14" spans="1:32" ht="20" customHeight="1">
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>165</v>
@@ -5460,29 +5474,29 @@
       <c r="K14" s="10"/>
       <c r="L14" s="70"/>
       <c r="M14" s="66"/>
-      <c r="N14" s="298"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="195" t="s">
+      <c r="N14" s="240"/>
+      <c r="O14" s="260"/>
+      <c r="P14" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="219"/>
-      <c r="S14" s="240"/>
-      <c r="T14" s="249"/>
-      <c r="U14" s="213"/>
-      <c r="V14" s="246"/>
-      <c r="W14" s="267"/>
-      <c r="X14" s="252"/>
-      <c r="Y14" s="252"/>
-      <c r="Z14" s="252"/>
-      <c r="AA14" s="252"/>
-      <c r="AB14" s="252"/>
-      <c r="AC14" s="252"/>
-      <c r="AD14" s="252"/>
-      <c r="AE14" s="252"/>
-      <c r="AF14" s="253"/>
-    </row>
-    <row r="15" spans="1:32" ht="19.95" customHeight="1">
+      <c r="Q14" s="264"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="272"/>
+      <c r="U14" s="286"/>
+      <c r="V14" s="277"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="251"/>
+      <c r="Y14" s="251"/>
+      <c r="Z14" s="251"/>
+      <c r="AA14" s="251"/>
+      <c r="AB14" s="251"/>
+      <c r="AC14" s="251"/>
+      <c r="AD14" s="251"/>
+      <c r="AE14" s="251"/>
+      <c r="AF14" s="252"/>
+    </row>
+    <row r="15" spans="1:32" ht="20" customHeight="1">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -5507,27 +5521,27 @@
       <c r="K15" s="10"/>
       <c r="L15" s="71"/>
       <c r="M15" s="63"/>
-      <c r="N15" s="298"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="195"/>
-      <c r="Q15" s="195"/>
-      <c r="R15" s="219"/>
-      <c r="S15" s="240"/>
-      <c r="T15" s="251"/>
-      <c r="U15" s="214"/>
-      <c r="V15" s="247"/>
-      <c r="W15" s="268"/>
-      <c r="X15" s="254"/>
-      <c r="Y15" s="254"/>
-      <c r="Z15" s="254"/>
-      <c r="AA15" s="254"/>
-      <c r="AB15" s="254"/>
-      <c r="AC15" s="254"/>
-      <c r="AD15" s="254"/>
-      <c r="AE15" s="254"/>
-      <c r="AF15" s="255"/>
-    </row>
-    <row r="16" spans="1:32" ht="19.95" customHeight="1">
+      <c r="N15" s="240"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="264"/>
+      <c r="R15" s="262"/>
+      <c r="S15" s="263"/>
+      <c r="T15" s="274"/>
+      <c r="U15" s="287"/>
+      <c r="V15" s="278"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="255"/>
+      <c r="Y15" s="255"/>
+      <c r="Z15" s="255"/>
+      <c r="AA15" s="255"/>
+      <c r="AB15" s="255"/>
+      <c r="AC15" s="255"/>
+      <c r="AD15" s="255"/>
+      <c r="AE15" s="255"/>
+      <c r="AF15" s="256"/>
+    </row>
+    <row r="16" spans="1:32" ht="20" customHeight="1">
       <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -5552,29 +5566,29 @@
       <c r="K16" s="10"/>
       <c r="L16" s="70"/>
       <c r="M16" s="66"/>
-      <c r="N16" s="298"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="195" t="s">
+      <c r="N16" s="240"/>
+      <c r="O16" s="260"/>
+      <c r="P16" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="195"/>
-      <c r="R16" s="219"/>
-      <c r="S16" s="240"/>
-      <c r="T16" s="249"/>
-      <c r="U16" s="213"/>
-      <c r="V16" s="246"/>
-      <c r="W16" s="267"/>
-      <c r="X16" s="252"/>
-      <c r="Y16" s="252"/>
-      <c r="Z16" s="252"/>
-      <c r="AA16" s="252"/>
-      <c r="AB16" s="252"/>
-      <c r="AC16" s="252"/>
-      <c r="AD16" s="252"/>
-      <c r="AE16" s="252"/>
-      <c r="AF16" s="253"/>
-    </row>
-    <row r="17" spans="2:32" ht="19.95" customHeight="1">
+      <c r="Q16" s="264"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="263"/>
+      <c r="T16" s="272"/>
+      <c r="U16" s="286"/>
+      <c r="V16" s="277"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="251"/>
+      <c r="Y16" s="251"/>
+      <c r="Z16" s="251"/>
+      <c r="AA16" s="251"/>
+      <c r="AB16" s="251"/>
+      <c r="AC16" s="251"/>
+      <c r="AD16" s="251"/>
+      <c r="AE16" s="251"/>
+      <c r="AF16" s="252"/>
+    </row>
+    <row r="17" spans="2:32" ht="20" customHeight="1">
       <c r="B17" s="9">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -5599,27 +5613,27 @@
       <c r="K17" s="10"/>
       <c r="L17" s="71"/>
       <c r="M17" s="63"/>
-      <c r="N17" s="298"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="195"/>
-      <c r="Q17" s="195"/>
-      <c r="R17" s="219"/>
-      <c r="S17" s="240"/>
-      <c r="T17" s="250"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="247"/>
-      <c r="W17" s="268"/>
-      <c r="X17" s="254"/>
-      <c r="Y17" s="254"/>
-      <c r="Z17" s="254"/>
-      <c r="AA17" s="254"/>
-      <c r="AB17" s="254"/>
-      <c r="AC17" s="254"/>
-      <c r="AD17" s="254"/>
-      <c r="AE17" s="254"/>
-      <c r="AF17" s="255"/>
-    </row>
-    <row r="18" spans="2:32" ht="19.95" customHeight="1">
+      <c r="N17" s="240"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="264"/>
+      <c r="Q17" s="264"/>
+      <c r="R17" s="262"/>
+      <c r="S17" s="263"/>
+      <c r="T17" s="273"/>
+      <c r="U17" s="287"/>
+      <c r="V17" s="278"/>
+      <c r="W17" s="189"/>
+      <c r="X17" s="255"/>
+      <c r="Y17" s="255"/>
+      <c r="Z17" s="255"/>
+      <c r="AA17" s="255"/>
+      <c r="AB17" s="255"/>
+      <c r="AC17" s="255"/>
+      <c r="AD17" s="255"/>
+      <c r="AE17" s="255"/>
+      <c r="AF17" s="256"/>
+    </row>
+    <row r="18" spans="2:32" ht="20" customHeight="1">
       <c r="B18" s="9">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -5644,29 +5658,29 @@
       <c r="K18" s="10"/>
       <c r="L18" s="71"/>
       <c r="M18" s="67"/>
-      <c r="N18" s="298"/>
-      <c r="O18" s="217"/>
-      <c r="P18" s="195" t="s">
+      <c r="N18" s="240"/>
+      <c r="O18" s="260"/>
+      <c r="P18" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="195"/>
-      <c r="R18" s="219"/>
-      <c r="S18" s="240"/>
-      <c r="T18" s="251"/>
-      <c r="U18" s="213"/>
-      <c r="V18" s="246"/>
-      <c r="W18" s="267"/>
-      <c r="X18" s="252"/>
-      <c r="Y18" s="252"/>
-      <c r="Z18" s="252"/>
-      <c r="AA18" s="252"/>
-      <c r="AB18" s="252"/>
-      <c r="AC18" s="252"/>
-      <c r="AD18" s="252"/>
-      <c r="AE18" s="252"/>
-      <c r="AF18" s="253"/>
-    </row>
-    <row r="19" spans="2:32" ht="19.95" customHeight="1">
+      <c r="Q18" s="264"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="263"/>
+      <c r="T18" s="274"/>
+      <c r="U18" s="286"/>
+      <c r="V18" s="277"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="251"/>
+      <c r="Y18" s="251"/>
+      <c r="Z18" s="251"/>
+      <c r="AA18" s="251"/>
+      <c r="AB18" s="251"/>
+      <c r="AC18" s="251"/>
+      <c r="AD18" s="251"/>
+      <c r="AE18" s="251"/>
+      <c r="AF18" s="252"/>
+    </row>
+    <row r="19" spans="2:32" ht="20" customHeight="1">
       <c r="B19" s="9">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -5691,27 +5705,27 @@
       <c r="K19" s="10"/>
       <c r="L19" s="72"/>
       <c r="M19" s="63"/>
-      <c r="N19" s="298"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="195"/>
-      <c r="Q19" s="195"/>
-      <c r="R19" s="219"/>
-      <c r="S19" s="240"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="214"/>
-      <c r="V19" s="247"/>
-      <c r="W19" s="268"/>
-      <c r="X19" s="254"/>
-      <c r="Y19" s="254"/>
-      <c r="Z19" s="254"/>
-      <c r="AA19" s="254"/>
-      <c r="AB19" s="254"/>
-      <c r="AC19" s="254"/>
-      <c r="AD19" s="254"/>
-      <c r="AE19" s="254"/>
-      <c r="AF19" s="255"/>
-    </row>
-    <row r="20" spans="2:32" ht="19.95" customHeight="1">
+      <c r="N19" s="240"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="264"/>
+      <c r="Q19" s="264"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="263"/>
+      <c r="T19" s="273"/>
+      <c r="U19" s="287"/>
+      <c r="V19" s="278"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="255"/>
+      <c r="Y19" s="255"/>
+      <c r="Z19" s="255"/>
+      <c r="AA19" s="255"/>
+      <c r="AB19" s="255"/>
+      <c r="AC19" s="255"/>
+      <c r="AD19" s="255"/>
+      <c r="AE19" s="255"/>
+      <c r="AF19" s="256"/>
+    </row>
+    <row r="20" spans="2:32" ht="20" customHeight="1">
       <c r="B20" s="9">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -5736,29 +5750,29 @@
       <c r="K20" s="10"/>
       <c r="L20" s="71"/>
       <c r="M20" s="67"/>
-      <c r="N20" s="298"/>
-      <c r="O20" s="217"/>
-      <c r="P20" s="195" t="s">
+      <c r="N20" s="240"/>
+      <c r="O20" s="260"/>
+      <c r="P20" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q20" s="195"/>
-      <c r="R20" s="219"/>
-      <c r="S20" s="240"/>
-      <c r="T20" s="251"/>
-      <c r="U20" s="213"/>
-      <c r="V20" s="246"/>
-      <c r="W20" s="267"/>
-      <c r="X20" s="252"/>
-      <c r="Y20" s="252"/>
-      <c r="Z20" s="252"/>
-      <c r="AA20" s="252"/>
-      <c r="AB20" s="252"/>
-      <c r="AC20" s="252"/>
-      <c r="AD20" s="252"/>
-      <c r="AE20" s="252"/>
-      <c r="AF20" s="253"/>
-    </row>
-    <row r="21" spans="2:32" ht="19.95" customHeight="1">
+      <c r="Q20" s="264"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="263"/>
+      <c r="T20" s="274"/>
+      <c r="U20" s="286"/>
+      <c r="V20" s="277"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="251"/>
+      <c r="Y20" s="251"/>
+      <c r="Z20" s="251"/>
+      <c r="AA20" s="251"/>
+      <c r="AB20" s="251"/>
+      <c r="AC20" s="251"/>
+      <c r="AD20" s="251"/>
+      <c r="AE20" s="251"/>
+      <c r="AF20" s="252"/>
+    </row>
+    <row r="21" spans="2:32" ht="20" customHeight="1">
       <c r="B21" s="9">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -5783,27 +5797,27 @@
       <c r="K21" s="10"/>
       <c r="L21" s="72"/>
       <c r="M21" s="63"/>
-      <c r="N21" s="298"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="195"/>
-      <c r="Q21" s="195"/>
-      <c r="R21" s="219"/>
-      <c r="S21" s="240"/>
-      <c r="T21" s="250"/>
-      <c r="U21" s="214"/>
-      <c r="V21" s="247"/>
-      <c r="W21" s="268"/>
-      <c r="X21" s="254"/>
-      <c r="Y21" s="254"/>
-      <c r="Z21" s="254"/>
-      <c r="AA21" s="254"/>
-      <c r="AB21" s="254"/>
-      <c r="AC21" s="254"/>
-      <c r="AD21" s="254"/>
-      <c r="AE21" s="254"/>
-      <c r="AF21" s="255"/>
-    </row>
-    <row r="22" spans="2:32" ht="19.95" customHeight="1">
+      <c r="N21" s="240"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="264"/>
+      <c r="Q21" s="264"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="263"/>
+      <c r="T21" s="273"/>
+      <c r="U21" s="287"/>
+      <c r="V21" s="278"/>
+      <c r="W21" s="189"/>
+      <c r="X21" s="255"/>
+      <c r="Y21" s="255"/>
+      <c r="Z21" s="255"/>
+      <c r="AA21" s="255"/>
+      <c r="AB21" s="255"/>
+      <c r="AC21" s="255"/>
+      <c r="AD21" s="255"/>
+      <c r="AE21" s="255"/>
+      <c r="AF21" s="256"/>
+    </row>
+    <row r="22" spans="2:32" ht="20" customHeight="1">
       <c r="B22" s="9">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -5828,29 +5842,29 @@
       <c r="K22" s="10"/>
       <c r="L22" s="71"/>
       <c r="M22" s="67"/>
-      <c r="N22" s="298"/>
-      <c r="O22" s="217"/>
-      <c r="P22" s="195" t="s">
+      <c r="N22" s="240"/>
+      <c r="O22" s="260"/>
+      <c r="P22" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" s="195"/>
-      <c r="R22" s="219"/>
-      <c r="S22" s="240"/>
-      <c r="T22" s="251"/>
-      <c r="U22" s="213"/>
-      <c r="V22" s="246"/>
-      <c r="W22" s="267"/>
-      <c r="X22" s="252"/>
-      <c r="Y22" s="252"/>
-      <c r="Z22" s="252"/>
-      <c r="AA22" s="252"/>
-      <c r="AB22" s="252"/>
-      <c r="AC22" s="252"/>
-      <c r="AD22" s="252"/>
-      <c r="AE22" s="252"/>
-      <c r="AF22" s="253"/>
-    </row>
-    <row r="23" spans="2:32" ht="19.95" customHeight="1">
+      <c r="Q22" s="264"/>
+      <c r="R22" s="262"/>
+      <c r="S22" s="263"/>
+      <c r="T22" s="274"/>
+      <c r="U22" s="286"/>
+      <c r="V22" s="277"/>
+      <c r="W22" s="188"/>
+      <c r="X22" s="251"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="251"/>
+      <c r="AA22" s="251"/>
+      <c r="AB22" s="251"/>
+      <c r="AC22" s="251"/>
+      <c r="AD22" s="251"/>
+      <c r="AE22" s="251"/>
+      <c r="AF22" s="252"/>
+    </row>
+    <row r="23" spans="2:32" ht="20" customHeight="1">
       <c r="B23" s="9">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5875,27 +5889,27 @@
       <c r="K23" s="10"/>
       <c r="L23" s="72"/>
       <c r="M23" s="63"/>
-      <c r="N23" s="298"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="195"/>
-      <c r="Q23" s="195"/>
-      <c r="R23" s="219"/>
-      <c r="S23" s="240"/>
-      <c r="T23" s="250"/>
-      <c r="U23" s="214"/>
-      <c r="V23" s="247"/>
-      <c r="W23" s="268"/>
-      <c r="X23" s="254"/>
-      <c r="Y23" s="254"/>
-      <c r="Z23" s="254"/>
-      <c r="AA23" s="254"/>
-      <c r="AB23" s="254"/>
-      <c r="AC23" s="254"/>
-      <c r="AD23" s="254"/>
-      <c r="AE23" s="254"/>
-      <c r="AF23" s="255"/>
-    </row>
-    <row r="24" spans="2:32" ht="19.95" customHeight="1">
+      <c r="N23" s="240"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="264"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="263"/>
+      <c r="T23" s="273"/>
+      <c r="U23" s="287"/>
+      <c r="V23" s="278"/>
+      <c r="W23" s="189"/>
+      <c r="X23" s="255"/>
+      <c r="Y23" s="255"/>
+      <c r="Z23" s="255"/>
+      <c r="AA23" s="255"/>
+      <c r="AB23" s="255"/>
+      <c r="AC23" s="255"/>
+      <c r="AD23" s="255"/>
+      <c r="AE23" s="255"/>
+      <c r="AF23" s="256"/>
+    </row>
+    <row r="24" spans="2:32" ht="20" customHeight="1">
       <c r="B24" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5920,29 +5934,29 @@
       <c r="K24" s="10"/>
       <c r="L24" s="71"/>
       <c r="M24" s="67"/>
-      <c r="N24" s="298"/>
-      <c r="O24" s="217"/>
-      <c r="P24" s="195" t="s">
+      <c r="N24" s="240"/>
+      <c r="O24" s="260"/>
+      <c r="P24" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" s="195"/>
-      <c r="R24" s="219"/>
-      <c r="S24" s="240"/>
-      <c r="T24" s="251"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="246"/>
-      <c r="W24" s="267"/>
-      <c r="X24" s="252"/>
-      <c r="Y24" s="252"/>
-      <c r="Z24" s="252"/>
-      <c r="AA24" s="252"/>
-      <c r="AB24" s="252"/>
-      <c r="AC24" s="252"/>
-      <c r="AD24" s="252"/>
-      <c r="AE24" s="252"/>
-      <c r="AF24" s="253"/>
-    </row>
-    <row r="25" spans="2:32" ht="19.95" customHeight="1">
+      <c r="Q24" s="264"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="263"/>
+      <c r="T24" s="274"/>
+      <c r="U24" s="286"/>
+      <c r="V24" s="277"/>
+      <c r="W24" s="188"/>
+      <c r="X24" s="251"/>
+      <c r="Y24" s="251"/>
+      <c r="Z24" s="251"/>
+      <c r="AA24" s="251"/>
+      <c r="AB24" s="251"/>
+      <c r="AC24" s="251"/>
+      <c r="AD24" s="251"/>
+      <c r="AE24" s="251"/>
+      <c r="AF24" s="252"/>
+    </row>
+    <row r="25" spans="2:32" ht="20" customHeight="1">
       <c r="B25" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5967,27 +5981,27 @@
       <c r="K25" s="10"/>
       <c r="L25" s="72"/>
       <c r="M25" s="63"/>
-      <c r="N25" s="298"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="195"/>
-      <c r="Q25" s="195"/>
-      <c r="R25" s="219"/>
-      <c r="S25" s="240"/>
-      <c r="T25" s="251"/>
-      <c r="U25" s="214"/>
-      <c r="V25" s="247"/>
-      <c r="W25" s="268"/>
-      <c r="X25" s="254"/>
-      <c r="Y25" s="254"/>
-      <c r="Z25" s="254"/>
-      <c r="AA25" s="254"/>
-      <c r="AB25" s="254"/>
-      <c r="AC25" s="254"/>
-      <c r="AD25" s="254"/>
-      <c r="AE25" s="254"/>
-      <c r="AF25" s="255"/>
-    </row>
-    <row r="26" spans="2:32" ht="19.95" customHeight="1">
+      <c r="N25" s="240"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="264"/>
+      <c r="Q25" s="264"/>
+      <c r="R25" s="262"/>
+      <c r="S25" s="263"/>
+      <c r="T25" s="274"/>
+      <c r="U25" s="287"/>
+      <c r="V25" s="278"/>
+      <c r="W25" s="189"/>
+      <c r="X25" s="255"/>
+      <c r="Y25" s="255"/>
+      <c r="Z25" s="255"/>
+      <c r="AA25" s="255"/>
+      <c r="AB25" s="255"/>
+      <c r="AC25" s="255"/>
+      <c r="AD25" s="255"/>
+      <c r="AE25" s="255"/>
+      <c r="AF25" s="256"/>
+    </row>
+    <row r="26" spans="2:32" ht="20" customHeight="1">
       <c r="B26" s="9">
         <f>D25</f>
         <v>45</v>
@@ -6012,31 +6026,31 @@
       <c r="K26" s="10"/>
       <c r="L26" s="71"/>
       <c r="M26" s="68"/>
-      <c r="N26" s="298"/>
-      <c r="O26" s="235"/>
-      <c r="P26" s="232" t="s">
+      <c r="N26" s="240"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="232"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="249"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="243"/>
-      <c r="W26" s="267"/>
-      <c r="X26" s="252"/>
-      <c r="Y26" s="252"/>
-      <c r="Z26" s="252"/>
-      <c r="AA26" s="252"/>
-      <c r="AB26" s="252"/>
-      <c r="AC26" s="252"/>
-      <c r="AD26" s="252"/>
-      <c r="AE26" s="252"/>
-      <c r="AF26" s="253"/>
-    </row>
-    <row r="27" spans="2:32" ht="19.95" customHeight="1">
+      <c r="Q26" s="213"/>
+      <c r="R26" s="284"/>
+      <c r="S26" s="280"/>
+      <c r="T26" s="272"/>
+      <c r="U26" s="284"/>
+      <c r="V26" s="281"/>
+      <c r="W26" s="188"/>
+      <c r="X26" s="251"/>
+      <c r="Y26" s="251"/>
+      <c r="Z26" s="251"/>
+      <c r="AA26" s="251"/>
+      <c r="AB26" s="251"/>
+      <c r="AC26" s="251"/>
+      <c r="AD26" s="251"/>
+      <c r="AE26" s="251"/>
+      <c r="AF26" s="252"/>
+    </row>
+    <row r="27" spans="2:32" ht="20" customHeight="1">
       <c r="B27" s="9">
-        <f t="shared" ref="B27:B29" si="2">D26</f>
+        <f t="shared" ref="B27:B28" si="2">D26</f>
         <v>35</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -6059,27 +6073,27 @@
       <c r="K27" s="10"/>
       <c r="L27" s="72"/>
       <c r="M27" s="65"/>
-      <c r="N27" s="298"/>
-      <c r="O27" s="239"/>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="232"/>
-      <c r="R27" s="241"/>
-      <c r="S27" s="242"/>
-      <c r="T27" s="250"/>
-      <c r="U27" s="248"/>
-      <c r="V27" s="245"/>
-      <c r="W27" s="268"/>
-      <c r="X27" s="254"/>
-      <c r="Y27" s="254"/>
-      <c r="Z27" s="254"/>
-      <c r="AA27" s="254"/>
-      <c r="AB27" s="254"/>
-      <c r="AC27" s="254"/>
-      <c r="AD27" s="254"/>
-      <c r="AE27" s="254"/>
-      <c r="AF27" s="255"/>
-    </row>
-    <row r="28" spans="2:32" ht="19.95" customHeight="1">
+      <c r="N27" s="240"/>
+      <c r="O27" s="271"/>
+      <c r="P27" s="213"/>
+      <c r="Q27" s="213"/>
+      <c r="R27" s="284"/>
+      <c r="S27" s="280"/>
+      <c r="T27" s="273"/>
+      <c r="U27" s="285"/>
+      <c r="V27" s="283"/>
+      <c r="W27" s="189"/>
+      <c r="X27" s="255"/>
+      <c r="Y27" s="255"/>
+      <c r="Z27" s="255"/>
+      <c r="AA27" s="255"/>
+      <c r="AB27" s="255"/>
+      <c r="AC27" s="255"/>
+      <c r="AD27" s="255"/>
+      <c r="AE27" s="255"/>
+      <c r="AF27" s="256"/>
+    </row>
+    <row r="28" spans="2:32" ht="20" customHeight="1">
       <c r="B28" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -6104,29 +6118,29 @@
       <c r="K28" s="10"/>
       <c r="L28" s="71"/>
       <c r="M28" s="68"/>
-      <c r="N28" s="298"/>
-      <c r="O28" s="235"/>
-      <c r="P28" s="232" t="s">
+      <c r="N28" s="240"/>
+      <c r="O28" s="270"/>
+      <c r="P28" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="242"/>
-      <c r="T28" s="249"/>
-      <c r="U28" s="241"/>
-      <c r="V28" s="243"/>
-      <c r="W28" s="267"/>
-      <c r="X28" s="252"/>
-      <c r="Y28" s="252"/>
-      <c r="Z28" s="252"/>
-      <c r="AA28" s="252"/>
-      <c r="AB28" s="252"/>
-      <c r="AC28" s="252"/>
-      <c r="AD28" s="252"/>
-      <c r="AE28" s="252"/>
-      <c r="AF28" s="253"/>
-    </row>
-    <row r="29" spans="2:32" ht="19.95" customHeight="1">
+      <c r="Q28" s="213"/>
+      <c r="R28" s="284"/>
+      <c r="S28" s="280"/>
+      <c r="T28" s="272"/>
+      <c r="U28" s="284"/>
+      <c r="V28" s="281"/>
+      <c r="W28" s="188"/>
+      <c r="X28" s="251"/>
+      <c r="Y28" s="251"/>
+      <c r="Z28" s="251"/>
+      <c r="AA28" s="251"/>
+      <c r="AB28" s="251"/>
+      <c r="AC28" s="251"/>
+      <c r="AD28" s="251"/>
+      <c r="AE28" s="251"/>
+      <c r="AF28" s="252"/>
+    </row>
+    <row r="29" spans="2:32" ht="20" customHeight="1">
       <c r="B29" s="9">
         <v>18</v>
       </c>
@@ -6150,27 +6164,27 @@
       <c r="K29" s="10"/>
       <c r="L29" s="72"/>
       <c r="M29" s="65"/>
-      <c r="N29" s="298"/>
-      <c r="O29" s="239"/>
-      <c r="P29" s="232"/>
-      <c r="Q29" s="232"/>
-      <c r="R29" s="241"/>
-      <c r="S29" s="242"/>
-      <c r="T29" s="250"/>
-      <c r="U29" s="248"/>
-      <c r="V29" s="245"/>
-      <c r="W29" s="268"/>
-      <c r="X29" s="254"/>
-      <c r="Y29" s="254"/>
-      <c r="Z29" s="254"/>
-      <c r="AA29" s="254"/>
-      <c r="AB29" s="254"/>
-      <c r="AC29" s="254"/>
-      <c r="AD29" s="254"/>
-      <c r="AE29" s="254"/>
-      <c r="AF29" s="255"/>
-    </row>
-    <row r="30" spans="2:32" ht="19.95" customHeight="1">
+      <c r="N29" s="240"/>
+      <c r="O29" s="271"/>
+      <c r="P29" s="213"/>
+      <c r="Q29" s="213"/>
+      <c r="R29" s="284"/>
+      <c r="S29" s="280"/>
+      <c r="T29" s="273"/>
+      <c r="U29" s="285"/>
+      <c r="V29" s="283"/>
+      <c r="W29" s="189"/>
+      <c r="X29" s="255"/>
+      <c r="Y29" s="255"/>
+      <c r="Z29" s="255"/>
+      <c r="AA29" s="255"/>
+      <c r="AB29" s="255"/>
+      <c r="AC29" s="255"/>
+      <c r="AD29" s="255"/>
+      <c r="AE29" s="255"/>
+      <c r="AF29" s="256"/>
+    </row>
+    <row r="30" spans="2:32" ht="20" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="27" t="s">
         <v>22</v>
@@ -6185,29 +6199,29 @@
       <c r="K30" s="10"/>
       <c r="L30" s="71"/>
       <c r="M30" s="68"/>
-      <c r="N30" s="298"/>
-      <c r="O30" s="235"/>
-      <c r="P30" s="195" t="s">
+      <c r="N30" s="240"/>
+      <c r="O30" s="270"/>
+      <c r="P30" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="195"/>
-      <c r="R30" s="219"/>
-      <c r="S30" s="240"/>
-      <c r="T30" s="249"/>
-      <c r="U30" s="269"/>
-      <c r="V30" s="271"/>
-      <c r="W30" s="311"/>
-      <c r="X30" s="252"/>
-      <c r="Y30" s="252"/>
-      <c r="Z30" s="252"/>
-      <c r="AA30" s="252"/>
-      <c r="AB30" s="252"/>
-      <c r="AC30" s="252"/>
-      <c r="AD30" s="252"/>
-      <c r="AE30" s="252"/>
-      <c r="AF30" s="253"/>
-    </row>
-    <row r="31" spans="2:32" ht="19.95" customHeight="1">
+      <c r="Q30" s="264"/>
+      <c r="R30" s="262"/>
+      <c r="S30" s="263"/>
+      <c r="T30" s="272"/>
+      <c r="U30" s="290"/>
+      <c r="V30" s="292"/>
+      <c r="W30" s="257"/>
+      <c r="X30" s="251"/>
+      <c r="Y30" s="251"/>
+      <c r="Z30" s="251"/>
+      <c r="AA30" s="251"/>
+      <c r="AB30" s="251"/>
+      <c r="AC30" s="251"/>
+      <c r="AD30" s="251"/>
+      <c r="AE30" s="251"/>
+      <c r="AF30" s="252"/>
+    </row>
+    <row r="31" spans="2:32" ht="20" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="27" t="s">
         <v>22</v>
@@ -6222,27 +6236,27 @@
       <c r="K31" s="10"/>
       <c r="L31" s="71"/>
       <c r="M31" s="65"/>
-      <c r="N31" s="298"/>
-      <c r="O31" s="239"/>
-      <c r="P31" s="232"/>
-      <c r="Q31" s="232"/>
-      <c r="R31" s="219"/>
-      <c r="S31" s="240"/>
-      <c r="T31" s="250"/>
-      <c r="U31" s="270"/>
-      <c r="V31" s="272"/>
-      <c r="W31" s="313"/>
-      <c r="X31" s="254"/>
-      <c r="Y31" s="254"/>
-      <c r="Z31" s="254"/>
-      <c r="AA31" s="254"/>
-      <c r="AB31" s="254"/>
-      <c r="AC31" s="254"/>
-      <c r="AD31" s="254"/>
-      <c r="AE31" s="254"/>
-      <c r="AF31" s="255"/>
-    </row>
-    <row r="32" spans="2:32" ht="19.95" customHeight="1" thickBot="1">
+      <c r="N31" s="240"/>
+      <c r="O31" s="271"/>
+      <c r="P31" s="213"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="263"/>
+      <c r="T31" s="273"/>
+      <c r="U31" s="291"/>
+      <c r="V31" s="293"/>
+      <c r="W31" s="259"/>
+      <c r="X31" s="255"/>
+      <c r="Y31" s="255"/>
+      <c r="Z31" s="255"/>
+      <c r="AA31" s="255"/>
+      <c r="AB31" s="255"/>
+      <c r="AC31" s="255"/>
+      <c r="AD31" s="255"/>
+      <c r="AE31" s="255"/>
+      <c r="AF31" s="256"/>
+    </row>
+    <row r="32" spans="2:32" ht="20" customHeight="1" thickBot="1">
       <c r="B32" s="12"/>
       <c r="C32" s="32" t="s">
         <v>22</v>
@@ -6257,29 +6271,29 @@
       <c r="K32" s="11"/>
       <c r="L32" s="71"/>
       <c r="M32" s="68"/>
-      <c r="N32" s="298"/>
-      <c r="O32" s="235"/>
-      <c r="P32" s="233" t="s">
+      <c r="N32" s="240"/>
+      <c r="O32" s="270"/>
+      <c r="P32" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="Q32" s="233"/>
-      <c r="R32" s="237"/>
-      <c r="S32" s="238"/>
-      <c r="T32" s="249"/>
-      <c r="U32" s="241"/>
-      <c r="V32" s="243"/>
-      <c r="W32" s="311"/>
-      <c r="X32" s="252"/>
-      <c r="Y32" s="252"/>
-      <c r="Z32" s="252"/>
-      <c r="AA32" s="252"/>
-      <c r="AB32" s="252"/>
-      <c r="AC32" s="252"/>
-      <c r="AD32" s="252"/>
-      <c r="AE32" s="252"/>
-      <c r="AF32" s="253"/>
-    </row>
-    <row r="33" spans="2:32" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="Q32" s="294"/>
+      <c r="R32" s="297"/>
+      <c r="S32" s="298"/>
+      <c r="T32" s="272"/>
+      <c r="U32" s="284"/>
+      <c r="V32" s="281"/>
+      <c r="W32" s="257"/>
+      <c r="X32" s="251"/>
+      <c r="Y32" s="251"/>
+      <c r="Z32" s="251"/>
+      <c r="AA32" s="251"/>
+      <c r="AB32" s="251"/>
+      <c r="AC32" s="251"/>
+      <c r="AD32" s="251"/>
+      <c r="AE32" s="251"/>
+      <c r="AF32" s="252"/>
+    </row>
+    <row r="33" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1">
       <c r="B33" s="17"/>
       <c r="C33" s="18" t="s">
         <v>22</v>
@@ -6294,27 +6308,27 @@
       <c r="K33" s="15"/>
       <c r="L33" s="73"/>
       <c r="M33" s="69"/>
-      <c r="N33" s="299"/>
-      <c r="O33" s="236"/>
-      <c r="P33" s="234"/>
-      <c r="Q33" s="234"/>
-      <c r="R33" s="237"/>
-      <c r="S33" s="238"/>
-      <c r="T33" s="266"/>
-      <c r="U33" s="258"/>
-      <c r="V33" s="244"/>
-      <c r="W33" s="312"/>
-      <c r="X33" s="309"/>
-      <c r="Y33" s="309"/>
-      <c r="Z33" s="309"/>
-      <c r="AA33" s="309"/>
-      <c r="AB33" s="309"/>
-      <c r="AC33" s="309"/>
-      <c r="AD33" s="309"/>
-      <c r="AE33" s="309"/>
-      <c r="AF33" s="310"/>
-    </row>
-    <row r="34" spans="2:32" ht="13.8" thickTop="1">
+      <c r="N33" s="241"/>
+      <c r="O33" s="296"/>
+      <c r="P33" s="295"/>
+      <c r="Q33" s="295"/>
+      <c r="R33" s="297"/>
+      <c r="S33" s="298"/>
+      <c r="T33" s="289"/>
+      <c r="U33" s="288"/>
+      <c r="V33" s="282"/>
+      <c r="W33" s="258"/>
+      <c r="X33" s="253"/>
+      <c r="Y33" s="253"/>
+      <c r="Z33" s="253"/>
+      <c r="AA33" s="253"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="253"/>
+      <c r="AD33" s="253"/>
+      <c r="AE33" s="253"/>
+      <c r="AF33" s="254"/>
+    </row>
+    <row r="34" spans="2:32" ht="14" thickTop="1">
       <c r="P34" s="28"/>
       <c r="Q34" s="28"/>
       <c r="V34" s="28"/>
@@ -6331,18 +6345,120 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="L2:V2"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="X10:AF11"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="X20:AF21"/>
+    <mergeCell ref="X18:AF19"/>
+    <mergeCell ref="X16:AF17"/>
+    <mergeCell ref="X14:AF15"/>
+    <mergeCell ref="X12:AF13"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="W1:AF1"/>
     <mergeCell ref="W2:AF6"/>
@@ -6367,6 +6483,18 @@
     <mergeCell ref="W32:W33"/>
     <mergeCell ref="W30:W31"/>
     <mergeCell ref="W28:W29"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="S24:S25"/>
@@ -6379,120 +6507,6 @@
     <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="X20:AF21"/>
-    <mergeCell ref="X18:AF19"/>
-    <mergeCell ref="X16:AF17"/>
-    <mergeCell ref="X14:AF15"/>
-    <mergeCell ref="X12:AF13"/>
-    <mergeCell ref="X10:AF11"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="L2:V2"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6507,33 +6521,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="1" customWidth="1"/>
@@ -6541,223 +6555,223 @@
     <col min="20" max="1026" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.05" customHeight="1" thickTop="1">
-      <c r="A1" s="348" t="s">
+    <row r="1" spans="1:22" ht="16" customHeight="1" thickTop="1">
+      <c r="A1" s="422" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="350" t="s">
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="424" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="352" t="s">
+      <c r="F1" s="424"/>
+      <c r="G1" s="424"/>
+      <c r="H1" s="424"/>
+      <c r="I1" s="425"/>
+      <c r="J1" s="426" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="353"/>
-      <c r="L1" s="353"/>
-      <c r="M1" s="353"/>
-      <c r="N1" s="353"/>
-      <c r="O1" s="353"/>
-      <c r="P1" s="353"/>
-      <c r="Q1" s="353"/>
-      <c r="R1" s="354"/>
+      <c r="K1" s="427"/>
+      <c r="L1" s="427"/>
+      <c r="M1" s="427"/>
+      <c r="N1" s="427"/>
+      <c r="O1" s="427"/>
+      <c r="P1" s="427"/>
+      <c r="Q1" s="427"/>
+      <c r="R1" s="428"/>
       <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:22" ht="27" customHeight="1">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="407" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="429"/>
+      <c r="C2" s="429"/>
+      <c r="D2" s="429"/>
+      <c r="E2" s="430" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="357" t="s">
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="431"/>
+      <c r="J2" s="432"/>
+      <c r="K2" s="433"/>
+      <c r="L2" s="433"/>
+      <c r="M2" s="433"/>
+      <c r="N2" s="433"/>
+      <c r="O2" s="433"/>
+      <c r="P2" s="433"/>
+      <c r="Q2" s="433"/>
+      <c r="R2" s="434"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1">
+      <c r="A3" s="417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="418"/>
+      <c r="C3" s="418"/>
+      <c r="D3" s="418"/>
+      <c r="E3" s="435" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="435"/>
+      <c r="G3" s="435"/>
+      <c r="H3" s="435"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="432"/>
+      <c r="K3" s="433"/>
+      <c r="L3" s="433"/>
+      <c r="M3" s="433"/>
+      <c r="N3" s="433"/>
+      <c r="O3" s="433"/>
+      <c r="P3" s="433"/>
+      <c r="Q3" s="433"/>
+      <c r="R3" s="434"/>
+      <c r="S3" s="23"/>
+    </row>
+    <row r="4" spans="1:22" ht="27" customHeight="1">
+      <c r="A4" s="407" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="357"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="359"/>
-      <c r="K2" s="360"/>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="360"/>
-      <c r="P2" s="360"/>
-      <c r="Q2" s="360"/>
-      <c r="R2" s="361"/>
-      <c r="S2" s="23"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1">
-      <c r="A3" s="342" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="343"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="362" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="359"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="360"/>
-      <c r="M3" s="360"/>
-      <c r="N3" s="360"/>
-      <c r="O3" s="360"/>
-      <c r="P3" s="360"/>
-      <c r="Q3" s="360"/>
-      <c r="R3" s="361"/>
-      <c r="S3" s="23"/>
-    </row>
-    <row r="4" spans="1:22" ht="27" customHeight="1">
-      <c r="A4" s="355" t="s">
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="437" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="356"/>
-      <c r="C4" s="356"/>
-      <c r="D4" s="356"/>
-      <c r="E4" s="364" t="s">
-        <v>292</v>
-      </c>
-      <c r="F4" s="364"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="364"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="359"/>
-      <c r="K4" s="360"/>
-      <c r="L4" s="360"/>
-      <c r="M4" s="360"/>
-      <c r="N4" s="360"/>
-      <c r="O4" s="360"/>
-      <c r="P4" s="360"/>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="361"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="437"/>
+      <c r="H4" s="437"/>
+      <c r="I4" s="438"/>
+      <c r="J4" s="432"/>
+      <c r="K4" s="433"/>
+      <c r="L4" s="433"/>
+      <c r="M4" s="433"/>
+      <c r="N4" s="433"/>
+      <c r="O4" s="433"/>
+      <c r="P4" s="433"/>
+      <c r="Q4" s="433"/>
+      <c r="R4" s="434"/>
       <c r="S4" s="23"/>
       <c r="V4" s="74"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1">
-      <c r="A5" s="342" t="s">
+      <c r="A5" s="417" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="343"/>
-      <c r="C5" s="343"/>
-      <c r="D5" s="343"/>
-      <c r="E5" s="344" t="s">
+      <c r="B5" s="418"/>
+      <c r="C5" s="418"/>
+      <c r="D5" s="418"/>
+      <c r="E5" s="419" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="345"/>
-      <c r="J5" s="346" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" s="338" t="s">
+      <c r="F5" s="419"/>
+      <c r="G5" s="419"/>
+      <c r="H5" s="419"/>
+      <c r="I5" s="420"/>
+      <c r="J5" s="421" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="448" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="340" t="s">
+      <c r="L5" s="449" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="383" t="s">
+      <c r="M5" s="439" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="384"/>
-      <c r="O5" s="383" t="s">
+      <c r="N5" s="440"/>
+      <c r="O5" s="439" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="384"/>
-      <c r="Q5" s="393" t="s">
+      <c r="P5" s="440"/>
+      <c r="Q5" s="375" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="394"/>
+      <c r="R5" s="443"/>
       <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:22" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="355"/>
-      <c r="B6" s="369"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="370"/>
-      <c r="F6" s="370"/>
-      <c r="G6" s="370"/>
-      <c r="H6" s="370"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="347"/>
-      <c r="K6" s="339"/>
-      <c r="L6" s="341"/>
-      <c r="M6" s="385"/>
-      <c r="N6" s="386"/>
-      <c r="O6" s="385"/>
-      <c r="P6" s="386"/>
-      <c r="Q6" s="395"/>
-      <c r="R6" s="396"/>
+      <c r="A6" s="407"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="408"/>
+      <c r="D6" s="408"/>
+      <c r="E6" s="409"/>
+      <c r="F6" s="409"/>
+      <c r="G6" s="409"/>
+      <c r="H6" s="409"/>
+      <c r="I6" s="410"/>
+      <c r="J6" s="382"/>
+      <c r="K6" s="392"/>
+      <c r="L6" s="450"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="442"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="442"/>
+      <c r="Q6" s="444"/>
+      <c r="R6" s="445"/>
       <c r="S6" s="23"/>
     </row>
-    <row r="7" spans="1:22" ht="31.95" customHeight="1">
-      <c r="A7" s="366" t="s">
+    <row r="7" spans="1:22" ht="32" customHeight="1">
+      <c r="A7" s="404" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="368" t="s">
+      <c r="B7" s="406" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="368"/>
+      <c r="C7" s="406"/>
       <c r="D7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="368" t="s">
+      <c r="E7" s="406" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="368"/>
-      <c r="G7" s="368"/>
-      <c r="H7" s="368"/>
+      <c r="F7" s="406"/>
+      <c r="G7" s="406"/>
+      <c r="H7" s="406"/>
       <c r="I7" s="37" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="175" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="173" t="s">
         <v>277</v>
       </c>
-      <c r="K7" s="173" t="s">
+      <c r="L7" s="174" t="s">
         <v>278</v>
       </c>
-      <c r="L7" s="174" t="s">
+      <c r="M7" s="400" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="334" t="s">
+      <c r="N7" s="446"/>
+      <c r="O7" s="400" t="s">
         <v>280</v>
       </c>
-      <c r="N7" s="335"/>
-      <c r="O7" s="334" t="s">
-        <v>281</v>
-      </c>
-      <c r="P7" s="335"/>
-      <c r="Q7" s="336"/>
-      <c r="R7" s="337"/>
+      <c r="P7" s="446"/>
+      <c r="Q7" s="389"/>
+      <c r="R7" s="447"/>
       <c r="S7" s="23"/>
     </row>
-    <row r="8" spans="1:22" ht="31.95" customHeight="1">
-      <c r="A8" s="366"/>
-      <c r="B8" s="374" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="375"/>
+    <row r="8" spans="1:22" ht="32" customHeight="1">
+      <c r="A8" s="404"/>
+      <c r="B8" s="413" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="414"/>
       <c r="D8" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="378" t="s">
+      <c r="E8" s="402" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="378"/>
-      <c r="G8" s="378"/>
-      <c r="H8" s="378"/>
+      <c r="F8" s="402"/>
+      <c r="G8" s="402"/>
+      <c r="H8" s="402"/>
       <c r="I8" s="38" t="s">
         <v>55</v>
       </c>
@@ -6770,35 +6784,35 @@
       <c r="L8" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="M8" s="388" t="s">
+      <c r="M8" s="391" t="s">
         <v>210</v>
       </c>
-      <c r="N8" s="339"/>
-      <c r="O8" s="388" t="s">
+      <c r="N8" s="392"/>
+      <c r="O8" s="391" t="s">
         <v>212</v>
       </c>
-      <c r="P8" s="339"/>
-      <c r="Q8" s="389" t="s">
+      <c r="P8" s="392"/>
+      <c r="Q8" s="393" t="s">
         <v>213</v>
       </c>
-      <c r="R8" s="390"/>
+      <c r="R8" s="394"/>
       <c r="S8" s="23"/>
     </row>
-    <row r="9" spans="1:22" ht="31.95" customHeight="1">
-      <c r="A9" s="366"/>
-      <c r="B9" s="376" t="s">
+    <row r="9" spans="1:22" ht="32" customHeight="1">
+      <c r="A9" s="404"/>
+      <c r="B9" s="415" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="377"/>
+      <c r="C9" s="416"/>
       <c r="D9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="379" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="378"/>
-      <c r="G9" s="378"/>
-      <c r="H9" s="378"/>
+      <c r="E9" s="403" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="402"/>
+      <c r="G9" s="402"/>
+      <c r="H9" s="402"/>
       <c r="I9" s="38" t="s">
         <v>55</v>
       </c>
@@ -6811,152 +6825,152 @@
       <c r="L9" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="339" t="s">
+      <c r="M9" s="392" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="339"/>
-      <c r="O9" s="339" t="s">
+      <c r="N9" s="392"/>
+      <c r="O9" s="392" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="339"/>
-      <c r="Q9" s="389" t="s">
+      <c r="P9" s="392"/>
+      <c r="Q9" s="393" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="390"/>
-    </row>
-    <row r="10" spans="1:22" ht="31.95" customHeight="1">
-      <c r="A10" s="366"/>
-      <c r="B10" s="378" t="s">
+      <c r="R9" s="394"/>
+    </row>
+    <row r="10" spans="1:22" ht="32" customHeight="1">
+      <c r="A10" s="404"/>
+      <c r="B10" s="402" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="378"/>
+      <c r="C10" s="402"/>
       <c r="D10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="378" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="378"/>
-      <c r="G10" s="378"/>
-      <c r="H10" s="378"/>
+      <c r="E10" s="402" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="402"/>
+      <c r="G10" s="402"/>
+      <c r="H10" s="402"/>
       <c r="I10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="347" t="s">
+      <c r="J10" s="382" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="382"/>
-      <c r="L10" s="478" t="s">
+      <c r="K10" s="383"/>
+      <c r="L10" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="339" t="s">
+      <c r="M10" s="392" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="339"/>
-      <c r="O10" s="339" t="s">
+      <c r="N10" s="392"/>
+      <c r="O10" s="392" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="339"/>
-      <c r="Q10" s="391"/>
-      <c r="R10" s="392"/>
-    </row>
-    <row r="11" spans="1:22" ht="31.95" customHeight="1">
-      <c r="A11" s="366"/>
-      <c r="B11" s="374" t="s">
+      <c r="P10" s="392"/>
+      <c r="Q10" s="395"/>
+      <c r="R10" s="396"/>
+    </row>
+    <row r="11" spans="1:22" ht="32" customHeight="1">
+      <c r="A11" s="404"/>
+      <c r="B11" s="413" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="375"/>
+      <c r="C11" s="414"/>
       <c r="D11" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="379" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" s="378"/>
-      <c r="G11" s="378"/>
-      <c r="H11" s="378"/>
+      <c r="E11" s="403" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="402"/>
+      <c r="G11" s="402"/>
+      <c r="H11" s="402"/>
       <c r="I11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="347" t="s">
+      <c r="J11" s="382" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="382"/>
-      <c r="L11" s="478" t="s">
+      <c r="K11" s="383"/>
+      <c r="L11" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="339" t="s">
+      <c r="M11" s="392" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="339"/>
-      <c r="O11" s="339" t="s">
+      <c r="N11" s="392"/>
+      <c r="O11" s="392" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="339"/>
-      <c r="Q11" s="391"/>
-      <c r="R11" s="392"/>
-    </row>
-    <row r="12" spans="1:22" ht="31.95" customHeight="1">
-      <c r="A12" s="366"/>
-      <c r="B12" s="374" t="s">
+      <c r="P11" s="392"/>
+      <c r="Q11" s="395"/>
+      <c r="R11" s="396"/>
+    </row>
+    <row r="12" spans="1:22" ht="32" customHeight="1">
+      <c r="A12" s="404"/>
+      <c r="B12" s="413" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="375"/>
+      <c r="C12" s="414"/>
       <c r="D12" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="379" t="s">
+      <c r="E12" s="403" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="379"/>
-      <c r="G12" s="379"/>
-      <c r="H12" s="379"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="403"/>
+      <c r="H12" s="403"/>
       <c r="I12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="380" t="s">
+      <c r="J12" s="397" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="347"/>
+      <c r="K12" s="382"/>
       <c r="L12" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="479" t="s">
+      <c r="M12" s="398" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="480"/>
-      <c r="O12" s="334" t="s">
+      <c r="N12" s="399"/>
+      <c r="O12" s="400" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="381"/>
-      <c r="Q12" s="336" t="s">
+      <c r="P12" s="401"/>
+      <c r="Q12" s="389" t="s">
         <v>79</v>
       </c>
-      <c r="R12" s="387"/>
-    </row>
-    <row r="13" spans="1:22" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A13" s="367"/>
-      <c r="B13" s="372" t="s">
+      <c r="R12" s="390"/>
+    </row>
+    <row r="13" spans="1:22" ht="32" customHeight="1" thickBot="1">
+      <c r="A13" s="405"/>
+      <c r="B13" s="411" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="372"/>
+      <c r="C13" s="411"/>
       <c r="D13" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="373" t="s">
+      <c r="E13" s="412" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="372"/>
-      <c r="G13" s="372"/>
-      <c r="H13" s="372"/>
+      <c r="F13" s="411"/>
+      <c r="G13" s="411"/>
+      <c r="H13" s="411"/>
       <c r="I13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="347" t="s">
+      <c r="J13" s="382" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="382"/>
-      <c r="L13" s="382"/>
+      <c r="K13" s="383"/>
+      <c r="L13" s="383"/>
       <c r="M13" s="98"/>
       <c r="N13" s="99" t="s">
         <v>37</v>
@@ -6971,81 +6985,81 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="36" customHeight="1" thickBot="1">
-      <c r="A14" s="409"/>
-      <c r="B14" s="428" t="s">
+      <c r="A14" s="336"/>
+      <c r="B14" s="355" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="429"/>
-      <c r="D14" s="412" t="s">
+      <c r="C14" s="356"/>
+      <c r="D14" s="339" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="413"/>
-      <c r="F14" s="413"/>
-      <c r="G14" s="413"/>
-      <c r="H14" s="413"/>
-      <c r="I14" s="414"/>
-      <c r="J14" s="404" t="s">
+      <c r="E14" s="340"/>
+      <c r="F14" s="340"/>
+      <c r="G14" s="340"/>
+      <c r="H14" s="340"/>
+      <c r="I14" s="341"/>
+      <c r="J14" s="384" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="405"/>
+      <c r="K14" s="385"/>
       <c r="L14" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="406" t="s">
+      <c r="M14" s="386" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="406"/>
-      <c r="O14" s="406" t="s">
+      <c r="N14" s="386"/>
+      <c r="O14" s="386" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="406"/>
-      <c r="Q14" s="407" t="s">
+      <c r="P14" s="386"/>
+      <c r="Q14" s="387" t="s">
         <v>80</v>
       </c>
-      <c r="R14" s="408"/>
+      <c r="R14" s="388"/>
       <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="1:22" ht="28.2" thickTop="1">
-      <c r="A15" s="410"/>
+    <row r="15" spans="1:22" ht="31" thickTop="1">
+      <c r="A15" s="337"/>
       <c r="B15" s="95"/>
       <c r="C15" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="415"/>
-      <c r="E15" s="416"/>
-      <c r="F15" s="416"/>
-      <c r="G15" s="416"/>
-      <c r="H15" s="416"/>
-      <c r="I15" s="417"/>
-      <c r="J15" s="402"/>
-      <c r="K15" s="403"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="343"/>
+      <c r="F15" s="343"/>
+      <c r="G15" s="343"/>
+      <c r="H15" s="343"/>
+      <c r="I15" s="344"/>
+      <c r="J15" s="380"/>
+      <c r="K15" s="381"/>
       <c r="L15" s="114"/>
-      <c r="M15" s="397"/>
-      <c r="N15" s="393"/>
-      <c r="O15" s="398"/>
-      <c r="P15" s="399"/>
-      <c r="Q15" s="400"/>
-      <c r="R15" s="401"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="375"/>
+      <c r="O15" s="376"/>
+      <c r="P15" s="377"/>
+      <c r="Q15" s="378"/>
+      <c r="R15" s="379"/>
       <c r="S15" s="23"/>
     </row>
-    <row r="16" spans="1:22" ht="22.2" customHeight="1">
-      <c r="A16" s="410"/>
+    <row r="16" spans="1:22" ht="22.25" customHeight="1">
+      <c r="A16" s="337"/>
       <c r="B16" s="43">
         <v>1</v>
       </c>
       <c r="C16" s="93"/>
-      <c r="D16" s="430"/>
-      <c r="E16" s="431"/>
-      <c r="F16" s="443" t="s">
-        <v>256</v>
-      </c>
-      <c r="G16" s="445" t="s">
+      <c r="D16" s="357"/>
+      <c r="E16" s="358"/>
+      <c r="F16" s="370" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="372" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="418" t="s">
+      <c r="H16" s="345" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="419"/>
+      <c r="I16" s="346"/>
       <c r="J16" s="100"/>
       <c r="K16" s="113"/>
       <c r="L16" s="90"/>
@@ -7057,18 +7071,18 @@
       <c r="R16" s="90"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:19" ht="22.2" customHeight="1">
-      <c r="A17" s="410"/>
+    <row r="17" spans="1:19" ht="22.25" customHeight="1">
+      <c r="A17" s="337"/>
       <c r="B17" s="96">
         <v>2</v>
       </c>
       <c r="C17" s="41"/>
-      <c r="D17" s="432"/>
-      <c r="E17" s="433"/>
-      <c r="F17" s="444"/>
-      <c r="G17" s="446"/>
-      <c r="H17" s="420"/>
-      <c r="I17" s="421"/>
+      <c r="D17" s="359"/>
+      <c r="E17" s="360"/>
+      <c r="F17" s="371"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="347"/>
+      <c r="I17" s="348"/>
       <c r="J17" s="100"/>
       <c r="K17" s="40"/>
       <c r="L17" s="42"/>
@@ -7080,20 +7094,20 @@
       <c r="R17" s="91"/>
       <c r="S17" s="23"/>
     </row>
-    <row r="18" spans="1:19" ht="22.2" customHeight="1">
-      <c r="A18" s="410"/>
+    <row r="18" spans="1:19" ht="22.25" customHeight="1">
+      <c r="A18" s="337"/>
       <c r="B18" s="43">
         <v>3</v>
       </c>
       <c r="C18" s="93"/>
-      <c r="D18" s="434" t="s">
+      <c r="D18" s="361" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="435"/>
+      <c r="E18" s="362"/>
       <c r="F18" s="80"/>
       <c r="G18" s="49"/>
-      <c r="H18" s="422"/>
-      <c r="I18" s="423"/>
+      <c r="H18" s="349"/>
+      <c r="I18" s="350"/>
       <c r="J18" s="100"/>
       <c r="K18" s="40"/>
       <c r="L18" s="42"/>
@@ -7106,19 +7120,19 @@
       <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" ht="24" customHeight="1">
-      <c r="A19" s="410"/>
+      <c r="A19" s="337"/>
       <c r="B19" s="43">
         <v>4</v>
       </c>
       <c r="C19" s="94"/>
-      <c r="D19" s="436" t="s">
+      <c r="D19" s="363" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="437"/>
+      <c r="E19" s="364"/>
       <c r="F19" s="50"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="424"/>
-      <c r="I19" s="425"/>
+      <c r="H19" s="351"/>
+      <c r="I19" s="352"/>
       <c r="J19" s="100"/>
       <c r="K19" s="77"/>
       <c r="L19" s="84"/>
@@ -7131,19 +7145,19 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" ht="24" customHeight="1">
-      <c r="A20" s="410"/>
+      <c r="A20" s="337"/>
       <c r="B20" s="43">
         <v>5</v>
       </c>
       <c r="C20" s="93"/>
-      <c r="D20" s="438" t="s">
+      <c r="D20" s="365" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="439"/>
+      <c r="E20" s="366"/>
       <c r="F20" s="76"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="424"/>
-      <c r="I20" s="425"/>
+      <c r="H20" s="351"/>
+      <c r="I20" s="352"/>
       <c r="J20" s="101"/>
       <c r="K20" s="78"/>
       <c r="L20" s="82"/>
@@ -7156,23 +7170,23 @@
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" ht="24" customHeight="1" thickBot="1">
-      <c r="A21" s="410"/>
+      <c r="A21" s="337"/>
       <c r="B21" s="43">
         <v>6</v>
       </c>
       <c r="C21" s="93"/>
-      <c r="D21" s="440" t="s">
+      <c r="D21" s="367" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="441"/>
-      <c r="F21" s="442"/>
+      <c r="E21" s="368"/>
+      <c r="F21" s="369"/>
       <c r="G21" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="426" t="s">
+      <c r="H21" s="353" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="427"/>
+      <c r="I21" s="354"/>
       <c r="J21" s="100"/>
       <c r="K21" s="44"/>
       <c r="L21"/>
@@ -7185,7 +7199,7 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1" thickTop="1">
-      <c r="A22" s="410"/>
+      <c r="A22" s="337"/>
       <c r="B22" s="43">
         <v>7</v>
       </c>
@@ -7208,7 +7222,7 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" ht="24" customHeight="1">
-      <c r="A23" s="410"/>
+      <c r="A23" s="337"/>
       <c r="B23" s="43">
         <v>8</v>
       </c>
@@ -7231,7 +7245,7 @@
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" ht="24" customHeight="1" thickBot="1">
-      <c r="A24" s="411"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="111">
         <v>9</v>
       </c>
@@ -7273,7 +7287,7 @@
       <c r="R25" s="82"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:19" ht="13.8">
+    <row r="26" spans="1:19" ht="14">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -7351,65 +7365,11 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:J6"/>
@@ -7426,16 +7386,70 @@
     <mergeCell ref="M5:N6"/>
     <mergeCell ref="O5:P6"/>
     <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="92" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="78" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -7445,7 +7459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7455,275 +7469,275 @@
       <selection activeCell="B11" sqref="B11:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="125" customWidth="1"/>
     <col min="2" max="2" width="14" style="125" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="125" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="125" customWidth="1"/>
-    <col min="5" max="5" width="0.77734375" style="125" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="125" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="125" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="125" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" style="125" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" style="125" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="125"/>
+    <col min="3" max="3" width="11.83203125" style="125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="125" customWidth="1"/>
+    <col min="5" max="5" width="0.83203125" style="125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="125" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="125" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" style="125" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="125" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999">
-      <c r="A1" s="451" t="s">
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="460" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
-      <c r="J1" s="451"/>
-      <c r="K1" s="451"/>
-    </row>
-    <row r="2" spans="1:11" ht="7.95" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A3" s="465" t="s">
+      <c r="B1" s="460"/>
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="460"/>
+      <c r="I1" s="460"/>
+      <c r="J1" s="460"/>
+      <c r="K1" s="460"/>
+    </row>
+    <row r="2" spans="1:11" ht="8" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:11" ht="19" customHeight="1">
+      <c r="A3" s="472" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="466"/>
-      <c r="C3" s="466"/>
-      <c r="D3" s="466"/>
-      <c r="E3" s="466"/>
-      <c r="F3" s="466"/>
-      <c r="G3" s="466"/>
-      <c r="H3" s="466"/>
-      <c r="I3" s="466"/>
-      <c r="J3" s="466"/>
-      <c r="K3" s="467"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.05" customHeight="1">
+      <c r="B3" s="473"/>
+      <c r="C3" s="473"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="473"/>
+      <c r="G3" s="473"/>
+      <c r="H3" s="473"/>
+      <c r="I3" s="473"/>
+      <c r="J3" s="473"/>
+      <c r="K3" s="474"/>
+    </row>
+    <row r="4" spans="1:11" ht="19" customHeight="1">
       <c r="A4" s="126">
         <v>1</v>
       </c>
-      <c r="B4" s="459" t="s">
+      <c r="B4" s="453" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="459"/>
-      <c r="D4" s="459"/>
-      <c r="E4" s="459"/>
-      <c r="F4" s="459"/>
-      <c r="G4" s="459"/>
-      <c r="H4" s="459"/>
-      <c r="I4" s="459"/>
-      <c r="J4" s="459"/>
-      <c r="K4" s="460"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.05" customHeight="1">
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
+      <c r="I4" s="453"/>
+      <c r="J4" s="453"/>
+      <c r="K4" s="454"/>
+    </row>
+    <row r="5" spans="1:11" ht="19" customHeight="1">
       <c r="A5" s="168">
         <v>2</v>
       </c>
-      <c r="B5" s="461" t="s">
+      <c r="B5" s="451" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="461"/>
-      <c r="E5" s="461"/>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
-      <c r="I5" s="461"/>
-      <c r="J5" s="461"/>
-      <c r="K5" s="462"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.05" customHeight="1">
+      <c r="C5" s="451"/>
+      <c r="D5" s="451"/>
+      <c r="E5" s="451"/>
+      <c r="F5" s="451"/>
+      <c r="G5" s="451"/>
+      <c r="H5" s="451"/>
+      <c r="I5" s="451"/>
+      <c r="J5" s="451"/>
+      <c r="K5" s="452"/>
+    </row>
+    <row r="6" spans="1:11" ht="19" customHeight="1">
       <c r="A6" s="126">
         <v>3</v>
       </c>
-      <c r="B6" s="459" t="s">
+      <c r="B6" s="453" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="459"/>
-      <c r="D6" s="459"/>
-      <c r="E6" s="459"/>
-      <c r="F6" s="459"/>
-      <c r="G6" s="459"/>
-      <c r="H6" s="459"/>
-      <c r="I6" s="459"/>
-      <c r="J6" s="459"/>
-      <c r="K6" s="460"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.05" customHeight="1">
+      <c r="C6" s="453"/>
+      <c r="D6" s="453"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="453"/>
+      <c r="I6" s="453"/>
+      <c r="J6" s="453"/>
+      <c r="K6" s="454"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" customHeight="1">
       <c r="A7" s="168">
         <v>4</v>
       </c>
-      <c r="B7" s="461" t="s">
+      <c r="B7" s="451" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="461"/>
-      <c r="D7" s="461"/>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="461"/>
-      <c r="I7" s="461"/>
-      <c r="J7" s="461"/>
-      <c r="K7" s="462"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.05" customHeight="1">
+      <c r="C7" s="451"/>
+      <c r="D7" s="451"/>
+      <c r="E7" s="451"/>
+      <c r="F7" s="451"/>
+      <c r="G7" s="451"/>
+      <c r="H7" s="451"/>
+      <c r="I7" s="451"/>
+      <c r="J7" s="451"/>
+      <c r="K7" s="452"/>
+    </row>
+    <row r="8" spans="1:11" ht="19" customHeight="1">
       <c r="A8" s="126">
         <v>5</v>
       </c>
-      <c r="B8" s="459" t="s">
+      <c r="B8" s="453" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="459"/>
-      <c r="D8" s="459"/>
-      <c r="E8" s="459"/>
-      <c r="F8" s="459"/>
-      <c r="G8" s="459"/>
-      <c r="H8" s="459"/>
-      <c r="I8" s="459"/>
-      <c r="J8" s="459"/>
-      <c r="K8" s="460"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.05" customHeight="1">
+      <c r="C8" s="453"/>
+      <c r="D8" s="453"/>
+      <c r="E8" s="453"/>
+      <c r="F8" s="453"/>
+      <c r="G8" s="453"/>
+      <c r="H8" s="453"/>
+      <c r="I8" s="453"/>
+      <c r="J8" s="453"/>
+      <c r="K8" s="454"/>
+    </row>
+    <row r="9" spans="1:11" ht="19" customHeight="1">
       <c r="A9" s="168">
         <v>6</v>
       </c>
-      <c r="B9" s="461" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="461"/>
-      <c r="D9" s="461"/>
-      <c r="E9" s="461"/>
-      <c r="F9" s="461"/>
-      <c r="G9" s="461"/>
-      <c r="H9" s="461"/>
-      <c r="I9" s="461"/>
-      <c r="J9" s="461"/>
-      <c r="K9" s="462"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.05" customHeight="1">
+      <c r="B9" s="451" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="451"/>
+      <c r="D9" s="451"/>
+      <c r="E9" s="451"/>
+      <c r="F9" s="451"/>
+      <c r="G9" s="451"/>
+      <c r="H9" s="451"/>
+      <c r="I9" s="451"/>
+      <c r="J9" s="451"/>
+      <c r="K9" s="452"/>
+    </row>
+    <row r="10" spans="1:11" ht="19" customHeight="1">
       <c r="A10" s="126">
         <v>7</v>
       </c>
-      <c r="B10" s="459" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="459"/>
-      <c r="D10" s="459"/>
-      <c r="E10" s="459"/>
-      <c r="F10" s="459"/>
-      <c r="G10" s="459"/>
-      <c r="H10" s="459"/>
-      <c r="I10" s="459"/>
-      <c r="J10" s="459"/>
-      <c r="K10" s="460"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.05" customHeight="1">
+      <c r="B10" s="453" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="453"/>
+      <c r="D10" s="453"/>
+      <c r="E10" s="453"/>
+      <c r="F10" s="453"/>
+      <c r="G10" s="453"/>
+      <c r="H10" s="453"/>
+      <c r="I10" s="453"/>
+      <c r="J10" s="453"/>
+      <c r="K10" s="454"/>
+    </row>
+    <row r="11" spans="1:11" ht="19" customHeight="1">
       <c r="A11" s="168">
         <v>8</v>
       </c>
-      <c r="B11" s="461" t="s">
+      <c r="B11" s="451" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="461"/>
-      <c r="D11" s="461"/>
-      <c r="E11" s="461"/>
-      <c r="F11" s="461"/>
-      <c r="G11" s="461"/>
-      <c r="H11" s="461"/>
-      <c r="I11" s="461"/>
-      <c r="J11" s="461"/>
-      <c r="K11" s="462"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.05" customHeight="1">
+      <c r="C11" s="451"/>
+      <c r="D11" s="451"/>
+      <c r="E11" s="451"/>
+      <c r="F11" s="451"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="451"/>
+      <c r="I11" s="451"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="452"/>
+    </row>
+    <row r="12" spans="1:11" ht="19" customHeight="1">
       <c r="A12" s="126">
         <v>9</v>
       </c>
-      <c r="B12" s="468" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="468"/>
-      <c r="D12" s="468"/>
-      <c r="E12" s="468"/>
-      <c r="F12" s="468"/>
-      <c r="G12" s="468"/>
-      <c r="H12" s="468"/>
-      <c r="I12" s="468"/>
-      <c r="J12" s="468"/>
-      <c r="K12" s="469"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.05" customHeight="1">
+      <c r="B12" s="475" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="475"/>
+      <c r="D12" s="475"/>
+      <c r="E12" s="475"/>
+      <c r="F12" s="475"/>
+      <c r="G12" s="475"/>
+      <c r="H12" s="475"/>
+      <c r="I12" s="475"/>
+      <c r="J12" s="475"/>
+      <c r="K12" s="476"/>
+    </row>
+    <row r="13" spans="1:11" ht="19" customHeight="1">
       <c r="A13" s="168">
         <v>10</v>
       </c>
-      <c r="B13" s="461" t="s">
+      <c r="B13" s="451" t="s">
         <v>236</v>
       </c>
-      <c r="C13" s="461"/>
-      <c r="D13" s="461"/>
-      <c r="E13" s="461"/>
-      <c r="F13" s="461"/>
-      <c r="G13" s="461"/>
-      <c r="H13" s="461"/>
-      <c r="I13" s="461"/>
-      <c r="J13" s="461"/>
-      <c r="K13" s="462"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.05" customHeight="1">
+      <c r="C13" s="451"/>
+      <c r="D13" s="451"/>
+      <c r="E13" s="451"/>
+      <c r="F13" s="451"/>
+      <c r="G13" s="451"/>
+      <c r="H13" s="451"/>
+      <c r="I13" s="451"/>
+      <c r="J13" s="451"/>
+      <c r="K13" s="452"/>
+    </row>
+    <row r="14" spans="1:11" ht="19" customHeight="1">
       <c r="A14" s="127">
         <v>11</v>
       </c>
-      <c r="B14" s="459" t="s">
+      <c r="B14" s="453" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="459"/>
-      <c r="D14" s="459"/>
-      <c r="E14" s="459"/>
-      <c r="F14" s="459"/>
-      <c r="G14" s="459"/>
-      <c r="H14" s="459"/>
-      <c r="I14" s="459"/>
-      <c r="J14" s="459"/>
-      <c r="K14" s="460"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.05" customHeight="1">
+      <c r="C14" s="453"/>
+      <c r="D14" s="453"/>
+      <c r="E14" s="453"/>
+      <c r="F14" s="453"/>
+      <c r="G14" s="453"/>
+      <c r="H14" s="453"/>
+      <c r="I14" s="453"/>
+      <c r="J14" s="453"/>
+      <c r="K14" s="454"/>
+    </row>
+    <row r="15" spans="1:11" ht="19" customHeight="1">
       <c r="A15" s="168">
         <v>12</v>
       </c>
-      <c r="B15" s="461" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="461"/>
-      <c r="D15" s="461"/>
-      <c r="E15" s="461"/>
-      <c r="F15" s="461"/>
-      <c r="G15" s="461"/>
-      <c r="H15" s="461"/>
-      <c r="I15" s="461"/>
-      <c r="J15" s="461"/>
-      <c r="K15" s="462"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.05" customHeight="1" thickBot="1">
+      <c r="B15" s="451" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="451"/>
+      <c r="D15" s="451"/>
+      <c r="E15" s="451"/>
+      <c r="F15" s="451"/>
+      <c r="G15" s="451"/>
+      <c r="H15" s="451"/>
+      <c r="I15" s="451"/>
+      <c r="J15" s="451"/>
+      <c r="K15" s="452"/>
+    </row>
+    <row r="16" spans="1:11" ht="19" customHeight="1" thickBot="1">
       <c r="A16" s="169">
         <v>13</v>
       </c>
-      <c r="B16" s="470" t="s">
+      <c r="B16" s="455" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="470"/>
-      <c r="D16" s="470"/>
-      <c r="E16" s="470"/>
-      <c r="F16" s="470"/>
-      <c r="G16" s="470"/>
-      <c r="H16" s="470"/>
-      <c r="I16" s="470"/>
-      <c r="J16" s="470"/>
-      <c r="K16" s="471"/>
-    </row>
-    <row r="17" spans="1:11" ht="7.05" customHeight="1" thickBot="1">
+      <c r="C16" s="455"/>
+      <c r="D16" s="455"/>
+      <c r="E16" s="455"/>
+      <c r="F16" s="455"/>
+      <c r="G16" s="455"/>
+      <c r="H16" s="455"/>
+      <c r="I16" s="455"/>
+      <c r="J16" s="455"/>
+      <c r="K16" s="456"/>
+    </row>
+    <row r="17" spans="1:11" ht="7" customHeight="1" thickBot="1">
       <c r="A17" s="128"/>
       <c r="B17" s="129"/>
       <c r="C17" s="129"/>
@@ -7735,29 +7749,29 @@
       <c r="I17" s="129"/>
       <c r="J17" s="129"/>
     </row>
-    <row r="18" spans="1:11" ht="19.05" customHeight="1">
-      <c r="A18" s="452" t="s">
+    <row r="18" spans="1:11" ht="19" customHeight="1">
+      <c r="A18" s="461" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="453"/>
-      <c r="C18" s="453"/>
-      <c r="D18" s="454"/>
+      <c r="B18" s="462"/>
+      <c r="C18" s="462"/>
+      <c r="D18" s="463"/>
       <c r="E18" s="128"/>
-      <c r="F18" s="463" t="s">
+      <c r="F18" s="470" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="464"/>
-      <c r="I18" s="472" t="s">
+      <c r="G18" s="471"/>
+      <c r="I18" s="457" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="473"/>
-      <c r="K18" s="474"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.05" customHeight="1">
-      <c r="A19" s="455" t="s">
+      <c r="J18" s="458"/>
+      <c r="K18" s="459"/>
+    </row>
+    <row r="19" spans="1:11" ht="22" customHeight="1">
+      <c r="A19" s="464" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="456"/>
+      <c r="B19" s="465"/>
       <c r="C19" s="130" t="s">
         <v>217</v>
       </c>
@@ -7781,11 +7795,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="22.05" customHeight="1">
-      <c r="A20" s="447" t="s">
+    <row r="20" spans="1:11" ht="22" customHeight="1">
+      <c r="A20" s="466" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="448"/>
+      <c r="B20" s="467"/>
       <c r="C20" s="134" t="s">
         <v>179</v>
       </c>
@@ -7809,11 +7823,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="31.95" customHeight="1">
-      <c r="A21" s="457" t="s">
+    <row r="21" spans="1:11" ht="32" customHeight="1">
+      <c r="A21" s="468" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="458"/>
+      <c r="B21" s="469"/>
       <c r="C21" s="134" t="s">
         <v>185</v>
       </c>
@@ -7837,11 +7851,11 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30">
-      <c r="A22" s="447" t="s">
+    <row r="22" spans="1:11" ht="21">
+      <c r="A22" s="466" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="448"/>
+      <c r="B22" s="467"/>
       <c r="C22" s="134" t="s">
         <v>180</v>
       </c>
@@ -7865,11 +7879,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21" thickBot="1">
-      <c r="A23" s="447" t="s">
+    <row r="23" spans="1:11" ht="22" thickBot="1">
+      <c r="A23" s="466" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="448"/>
+      <c r="B23" s="467"/>
       <c r="C23" s="134" t="s">
         <v>181</v>
       </c>
@@ -7893,11 +7907,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="22.05" customHeight="1" thickBot="1">
-      <c r="A24" s="447" t="s">
+    <row r="24" spans="1:11" ht="22" customHeight="1" thickBot="1">
+      <c r="A24" s="466" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="448"/>
+      <c r="B24" s="467"/>
       <c r="C24" s="134" t="s">
         <v>23</v>
       </c>
@@ -7912,11 +7926,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.399999999999999">
-      <c r="A25" s="447" t="s">
+    <row r="25" spans="1:11" ht="21">
+      <c r="A25" s="466" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="448"/>
+      <c r="B25" s="467"/>
       <c r="C25" s="134" t="s">
         <v>183</v>
       </c>
@@ -7925,11 +7939,11 @@
       </c>
       <c r="E25" s="163"/>
     </row>
-    <row r="26" spans="1:11" ht="21" thickBot="1">
-      <c r="A26" s="449" t="s">
+    <row r="26" spans="1:11" ht="22" thickBot="1">
+      <c r="A26" s="477" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="450"/>
+      <c r="B26" s="478"/>
       <c r="C26" s="137" t="s">
         <v>182</v>
       </c>
@@ -7938,37 +7952,37 @@
       </c>
       <c r="E26" s="163"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6">
+    <row r="29" spans="1:11">
       <c r="B29" s="166"/>
       <c r="C29" s="166"/>
       <c r="D29" s="166"/>
       <c r="E29" s="164"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6">
+    <row r="30" spans="1:11">
       <c r="B30" s="165"/>
       <c r="C30" s="165"/>
       <c r="D30" s="164"/>
       <c r="E30" s="164"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6">
+    <row r="31" spans="1:11">
       <c r="B31" s="165"/>
       <c r="C31" s="165"/>
       <c r="D31" s="164"/>
       <c r="E31" s="164"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6">
+    <row r="32" spans="1:11">
       <c r="B32" s="165"/>
       <c r="C32" s="165"/>
       <c r="D32" s="164"/>
       <c r="E32" s="164"/>
     </row>
-    <row r="33" spans="2:5" ht="15.6">
+    <row r="33" spans="2:5">
       <c r="B33" s="165"/>
       <c r="C33" s="165"/>
       <c r="D33" s="164"/>
       <c r="E33" s="164"/>
     </row>
-    <row r="34" spans="2:5" ht="15.6">
+    <row r="34" spans="2:5">
       <c r="B34" s="165"/>
       <c r="C34" s="165"/>
       <c r="D34" s="164"/>
@@ -7976,11 +7990,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:B19"/>
@@ -7997,11 +8011,11 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B15:K15"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8015,7 +8029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8025,50 +8039,50 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="73.44140625" style="56" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="56"/>
+    <col min="2" max="2" width="73.5" style="56" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.05" customHeight="1">
-      <c r="A1" s="475" t="s">
+    <row r="1" spans="1:2" ht="22" customHeight="1">
+      <c r="A1" s="479" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="476"/>
-    </row>
-    <row r="2" spans="1:2" s="158" customFormat="1" ht="15.6">
+      <c r="B1" s="480"/>
+    </row>
+    <row r="2" spans="1:2" s="158" customFormat="1" ht="16">
       <c r="A2" s="156" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="157"/>
     </row>
-    <row r="3" spans="1:2" ht="16.05" customHeight="1">
+    <row r="3" spans="1:2" ht="16" customHeight="1">
       <c r="A3" s="178" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="179" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="179" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.05" customHeight="1">
+    </row>
+    <row r="4" spans="1:2" ht="16" customHeight="1">
       <c r="A4" s="151" t="s">
         <v>144</v>
       </c>
       <c r="B4" s="179" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.05" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" customHeight="1">
       <c r="A5" s="178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.05" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" customHeight="1">
       <c r="A6" s="151" t="s">
         <v>222</v>
       </c>
@@ -8076,7 +8090,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.05" customHeight="1">
+    <row r="7" spans="1:2" ht="16" customHeight="1">
       <c r="A7" s="151" t="s">
         <v>143</v>
       </c>
@@ -8084,7 +8098,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.05" customHeight="1">
+    <row r="8" spans="1:2" ht="16" customHeight="1">
       <c r="A8" s="151" t="s">
         <v>141</v>
       </c>
@@ -8092,7 +8106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.05" customHeight="1">
+    <row r="9" spans="1:2" ht="16" customHeight="1">
       <c r="A9" s="151" t="s">
         <v>139</v>
       </c>
@@ -8100,7 +8114,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.05" customHeight="1">
+    <row r="10" spans="1:2" ht="16" customHeight="1">
       <c r="A10" s="151" t="s">
         <v>137</v>
       </c>
@@ -8108,7 +8122,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.05" customHeight="1">
+    <row r="11" spans="1:2" ht="16" customHeight="1">
       <c r="A11" s="151" t="s">
         <v>224</v>
       </c>
@@ -8116,7 +8130,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.05" customHeight="1">
+    <row r="12" spans="1:2" ht="16" customHeight="1">
       <c r="A12" s="151" t="s">
         <v>135</v>
       </c>
@@ -8124,7 +8138,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.05" customHeight="1">
+    <row r="13" spans="1:2" ht="16" customHeight="1">
       <c r="A13" s="151" t="s">
         <v>133</v>
       </c>
@@ -8132,7 +8146,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.05" customHeight="1">
+    <row r="14" spans="1:2" ht="16" customHeight="1">
       <c r="A14" s="151" t="s">
         <v>131</v>
       </c>
@@ -8140,7 +8154,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.05" customHeight="1">
+    <row r="15" spans="1:2" ht="16" customHeight="1">
       <c r="A15" s="151" t="s">
         <v>130</v>
       </c>
@@ -8148,63 +8162,63 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.05" customHeight="1">
+    <row r="16" spans="1:2" ht="16" customHeight="1">
       <c r="A16" s="151"/>
       <c r="B16" s="144" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.05" customHeight="1">
+    <row r="17" spans="1:2" ht="16" customHeight="1">
       <c r="A17" s="151"/>
       <c r="B17" s="144" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.05" customHeight="1">
+    <row r="18" spans="1:2" ht="16" customHeight="1">
       <c r="A18" s="146" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="147"/>
     </row>
-    <row r="19" spans="1:2" ht="16.05" customHeight="1">
+    <row r="19" spans="1:2" ht="16" customHeight="1">
       <c r="A19" s="151" t="s">
         <v>226</v>
       </c>
       <c r="B19" s="145" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.05" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" customHeight="1">
       <c r="A20" s="151" t="s">
         <v>227</v>
       </c>
       <c r="B20" s="145" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="55.05" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="55" customHeight="1">
       <c r="A21" s="152" t="s">
         <v>176</v>
       </c>
       <c r="B21" s="186" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.05" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" customHeight="1">
       <c r="A22" s="151" t="s">
         <v>177</v>
       </c>
       <c r="B22" s="185" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.05" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" customHeight="1">
       <c r="A23" s="146" t="s">
         <v>126</v>
       </c>
       <c r="B23" s="148"/>
     </row>
-    <row r="24" spans="1:2" ht="16.05" customHeight="1">
+    <row r="24" spans="1:2" ht="16" customHeight="1">
       <c r="A24" s="151" t="s">
         <v>16</v>
       </c>
@@ -8212,19 +8226,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.05" customHeight="1">
+    <row r="25" spans="1:2" ht="16" customHeight="1">
       <c r="A25" s="151"/>
       <c r="B25" s="144" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.05" customHeight="1">
+    <row r="26" spans="1:2" ht="16" customHeight="1">
       <c r="A26" s="151"/>
       <c r="B26" s="144" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.05" customHeight="1">
+    <row r="27" spans="1:2" ht="16" customHeight="1">
       <c r="A27" s="151" t="s">
         <v>122</v>
       </c>
@@ -8232,29 +8246,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.05" customHeight="1">
+    <row r="28" spans="1:2" ht="16" customHeight="1">
       <c r="A28" s="151" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="179" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.05" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" customHeight="1">
       <c r="A29" s="146" t="s">
         <v>118</v>
       </c>
       <c r="B29" s="148"/>
     </row>
-    <row r="30" spans="1:2" ht="16.05" customHeight="1">
+    <row r="30" spans="1:2" ht="16" customHeight="1">
       <c r="A30" s="151" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="176" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="176" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.05" customHeight="1">
+    </row>
+    <row r="31" spans="1:2" ht="16" customHeight="1">
       <c r="A31" s="151" t="s">
         <v>16</v>
       </c>
@@ -8262,7 +8276,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.05" customHeight="1">
+    <row r="32" spans="1:2" ht="16" customHeight="1">
       <c r="A32" s="151" t="s">
         <v>118</v>
       </c>
@@ -8270,13 +8284,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.05" customHeight="1">
+    <row r="33" spans="1:2" ht="16" customHeight="1">
       <c r="A33" s="146" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="148"/>
     </row>
-    <row r="34" spans="1:2" ht="16.05" customHeight="1">
+    <row r="34" spans="1:2" ht="16" customHeight="1">
       <c r="A34" s="151" t="s">
         <v>16</v>
       </c>
@@ -8284,13 +8298,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.95" customHeight="1">
+    <row r="35" spans="1:2" ht="17" customHeight="1">
       <c r="A35" s="151"/>
       <c r="B35" s="119" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.05" customHeight="1">
+    <row r="36" spans="1:2" ht="16" customHeight="1">
       <c r="A36" s="153" t="s">
         <v>88</v>
       </c>
@@ -8298,7 +8312,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.05" customHeight="1">
+    <row r="37" spans="1:2" ht="16" customHeight="1">
       <c r="A37" s="151" t="s">
         <v>115</v>
       </c>
@@ -8306,7 +8320,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="14">
       <c r="A38" s="151" t="s">
         <v>53</v>
       </c>
@@ -8314,15 +8328,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.05" customHeight="1">
+    <row r="39" spans="1:2" ht="16" customHeight="1">
       <c r="A39" s="178" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39" s="179" t="s">
         <v>287</v>
       </c>
-      <c r="B39" s="179" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="25.05" customHeight="1">
+    </row>
+    <row r="40" spans="1:2" ht="25" customHeight="1">
       <c r="A40" s="154" t="s">
         <v>113</v>
       </c>
@@ -8330,25 +8344,25 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.05" customHeight="1" thickBot="1">
+    <row r="41" spans="1:2" ht="16" customHeight="1" thickBot="1">
       <c r="A41" s="155"/>
       <c r="B41" s="150" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.05" customHeight="1">
+    <row r="42" spans="1:2" ht="16" customHeight="1">
       <c r="A42" s="149"/>
       <c r="B42" s="149"/>
     </row>
-    <row r="43" spans="1:2" ht="16.05" customHeight="1">
+    <row r="43" spans="1:2" ht="16" customHeight="1">
       <c r="A43" s="149"/>
       <c r="B43" s="149"/>
     </row>
-    <row r="44" spans="1:2" ht="16.05" customHeight="1">
+    <row r="44" spans="1:2" ht="16" customHeight="1">
       <c r="A44" s="149"/>
       <c r="B44" s="149"/>
     </row>
-    <row r="45" spans="1:2" ht="16.05" customHeight="1">
+    <row r="45" spans="1:2" ht="16" customHeight="1">
       <c r="A45" s="149"/>
       <c r="B45" s="149"/>
     </row>
@@ -8358,7 +8372,7 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup scale="96" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup scale="99" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
@@ -8368,7 +8382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8378,26 +8392,26 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="23" style="56" customWidth="1"/>
     <col min="2" max="2" width="69.6640625" style="56" customWidth="1"/>
-    <col min="3" max="16384" width="10.77734375" style="56"/>
+    <col min="3" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.95" customHeight="1">
+    <row r="1" spans="1:2" ht="29" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>146</v>
       </c>
       <c r="B1" s="60"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="159" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="148"/>
     </row>
-    <row r="3" spans="1:2" ht="16.05" customHeight="1">
+    <row r="3" spans="1:2" ht="16" customHeight="1">
       <c r="A3" s="58" t="s">
         <v>145</v>
       </c>
@@ -8405,7 +8419,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.05" customHeight="1">
+    <row r="4" spans="1:2" ht="16" customHeight="1">
       <c r="A4" s="58" t="s">
         <v>144</v>
       </c>
@@ -8413,15 +8427,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.05" customHeight="1">
+    <row r="5" spans="1:2" ht="16" customHeight="1">
       <c r="A5" s="180" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="119" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.05" customHeight="1">
+    <row r="6" spans="1:2" ht="16" customHeight="1">
       <c r="A6" s="58" t="s">
         <v>135</v>
       </c>
@@ -8429,7 +8443,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.05" customHeight="1">
+    <row r="7" spans="1:2" ht="16" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>133</v>
       </c>
@@ -8437,7 +8451,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.05" customHeight="1">
+    <row r="8" spans="1:2" ht="16" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>131</v>
       </c>
@@ -8445,7 +8459,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.05" customHeight="1">
+    <row r="9" spans="1:2" ht="16" customHeight="1">
       <c r="A9" s="58" t="s">
         <v>148</v>
       </c>
@@ -8461,7 +8475,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.05" customHeight="1">
+    <row r="11" spans="1:2" ht="16" customHeight="1">
       <c r="A11" s="58" t="s">
         <v>150</v>
       </c>
@@ -8469,31 +8483,31 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.05" customHeight="1">
+    <row r="12" spans="1:2" ht="16" customHeight="1">
       <c r="A12" s="58"/>
       <c r="B12" s="119" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.05" customHeight="1">
+    <row r="13" spans="1:2" ht="16" customHeight="1">
       <c r="A13" s="58"/>
       <c r="B13" s="119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.05" customHeight="1">
+    <row r="14" spans="1:2" ht="16" customHeight="1">
       <c r="A14" s="58"/>
       <c r="B14" s="119" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.05" customHeight="1">
+    <row r="15" spans="1:2" ht="16" customHeight="1">
       <c r="A15" s="58"/>
       <c r="B15" s="119" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.05" customHeight="1">
+    <row r="16" spans="1:2" ht="16" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>152</v>
       </c>
@@ -8501,31 +8515,31 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.05" customHeight="1">
+    <row r="17" spans="1:2" ht="16" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="119" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.05" customHeight="1">
+    <row r="18" spans="1:2" ht="16" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="119" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.05" customHeight="1">
+    <row r="19" spans="1:2" ht="16" customHeight="1">
       <c r="A19" s="58"/>
       <c r="B19" s="119" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="14">
       <c r="A20" s="58"/>
       <c r="B20" s="119" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.05" customHeight="1">
+    <row r="21" spans="1:2" ht="16" customHeight="1">
       <c r="A21" s="58" t="s">
         <v>153</v>
       </c>
@@ -8533,31 +8547,31 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.05" customHeight="1">
+    <row r="22" spans="1:2" ht="16" customHeight="1">
       <c r="A22" s="58"/>
       <c r="B22" s="119" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.05" customHeight="1">
+    <row r="23" spans="1:2" ht="16" customHeight="1">
       <c r="A23" s="58"/>
       <c r="B23" s="119" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.05" customHeight="1">
+    <row r="24" spans="1:2" ht="16" customHeight="1">
       <c r="A24" s="58"/>
       <c r="B24" s="119" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.05" customHeight="1">
+    <row r="25" spans="1:2" ht="16" customHeight="1">
       <c r="A25" s="58"/>
       <c r="B25" s="119" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.05" customHeight="1">
+    <row r="26" spans="1:2" ht="16" customHeight="1">
       <c r="A26" s="58" t="s">
         <v>154</v>
       </c>
@@ -8565,7 +8579,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="26.4">
+    <row r="27" spans="1:2" ht="28">
       <c r="A27" s="58" t="s">
         <v>155</v>
       </c>
@@ -8573,7 +8587,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.05" customHeight="1">
+    <row r="28" spans="1:2" ht="16" customHeight="1">
       <c r="A28" s="58" t="s">
         <v>156</v>
       </c>
@@ -8581,31 +8595,31 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.05" customHeight="1">
+    <row r="29" spans="1:2" ht="16" customHeight="1">
       <c r="A29" s="58"/>
       <c r="B29" s="119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.05" customHeight="1">
+    <row r="30" spans="1:2" ht="16" customHeight="1">
       <c r="A30" s="58"/>
       <c r="B30" s="119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.05" customHeight="1">
+    <row r="31" spans="1:2" ht="16" customHeight="1">
       <c r="A31" s="58"/>
       <c r="B31" s="119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.05" customHeight="1">
+    <row r="32" spans="1:2" ht="16" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" s="119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.05" customHeight="1">
+    <row r="33" spans="1:2" ht="16" customHeight="1">
       <c r="A33" s="58" t="s">
         <v>162</v>
       </c>
@@ -8613,13 +8627,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.05" customHeight="1">
+    <row r="34" spans="1:2" ht="16" customHeight="1">
       <c r="A34" s="58"/>
       <c r="B34" s="119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.05" customHeight="1">
+    <row r="35" spans="1:2" ht="16" customHeight="1">
       <c r="A35" s="58" t="s">
         <v>165</v>
       </c>
@@ -8627,21 +8641,21 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.05" customHeight="1">
+    <row r="36" spans="1:2" ht="16" customHeight="1">
       <c r="A36" s="58" t="s">
         <v>172</v>
       </c>
       <c r="B36" s="181" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="31.05" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="31" customHeight="1">
       <c r="A37" s="58"/>
       <c r="B37" s="119" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="31.95" customHeight="1" thickBot="1">
+    <row r="38" spans="1:2" ht="32" customHeight="1" thickBot="1">
       <c r="A38" s="160" t="s">
         <v>205</v>
       </c>
@@ -8649,27 +8663,27 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="40" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="41" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="42" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="43" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="44" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="45" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="46" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="47" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="48" spans="1:2" ht="16.05" customHeight="1"/>
-    <row r="49" ht="16.05" customHeight="1"/>
-    <row r="50" ht="16.05" customHeight="1"/>
-    <row r="51" ht="16.05" customHeight="1"/>
-    <row r="52" ht="16.05" customHeight="1"/>
-    <row r="53" ht="16.05" customHeight="1"/>
-    <row r="54" ht="16.05" customHeight="1"/>
-    <row r="55" ht="16.05" customHeight="1"/>
-    <row r="56" ht="16.05" customHeight="1"/>
-    <row r="57" ht="16.05" customHeight="1"/>
-    <row r="58" ht="16.05" customHeight="1"/>
-    <row r="59" ht="16.05" customHeight="1"/>
+    <row r="39" spans="1:2" ht="16" customHeight="1"/>
+    <row r="40" spans="1:2" ht="16" customHeight="1"/>
+    <row r="41" spans="1:2" ht="16" customHeight="1"/>
+    <row r="42" spans="1:2" ht="16" customHeight="1"/>
+    <row r="43" spans="1:2" ht="16" customHeight="1"/>
+    <row r="44" spans="1:2" ht="16" customHeight="1"/>
+    <row r="45" spans="1:2" ht="16" customHeight="1"/>
+    <row r="46" spans="1:2" ht="16" customHeight="1"/>
+    <row r="47" spans="1:2" ht="16" customHeight="1"/>
+    <row r="48" spans="1:2" ht="16" customHeight="1"/>
+    <row r="49" ht="16" customHeight="1"/>
+    <row r="50" ht="16" customHeight="1"/>
+    <row r="51" ht="16" customHeight="1"/>
+    <row r="52" ht="16" customHeight="1"/>
+    <row r="53" ht="16" customHeight="1"/>
+    <row r="54" ht="16" customHeight="1"/>
+    <row r="55" ht="16" customHeight="1"/>
+    <row r="56" ht="16" customHeight="1"/>
+    <row r="57" ht="16" customHeight="1"/>
+    <row r="58" ht="16" customHeight="1"/>
+    <row r="59" ht="16" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
